--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -1536,20 +1536,14 @@
         <v>41.61849999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>41.49</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,20 +1571,14 @@
         <v>41.61733333333332</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>41.58</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1664,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1703,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1742,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1781,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1898,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1976,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2008,20 +1956,14 @@
         <v>41.55549999999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>41.48</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2056,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2088,20 +2026,14 @@
         <v>41.54066666666665</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>41.44</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2246,20 +2166,14 @@
         <v>41.52199999999998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>41.54</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2333,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2372,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2411,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2450,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2489,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2528,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2567,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2599,20 +2481,14 @@
         <v>41.49383333333332</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2640,20 +2516,14 @@
         <v>41.48699999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>41.19</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2681,20 +2551,14 @@
         <v>41.48416666666665</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2722,20 +2586,14 @@
         <v>41.48433333333332</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>41.43</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2763,20 +2621,14 @@
         <v>41.48399999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>41.43</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2804,20 +2656,14 @@
         <v>41.48316666666665</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>41.59</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2845,20 +2691,14 @@
         <v>41.48049999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>41.59</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2886,20 +2726,14 @@
         <v>41.47916666666665</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>41.47</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2934,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2966,20 +2796,14 @@
         <v>41.48216666666665</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>41.59</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3170,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3280,20 +3076,14 @@
         <v>41.48816666666664</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>41.51</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3445,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3484,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3562,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3601,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3679,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3757,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3831,16 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3868,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3903,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3938,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3973,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4008,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4043,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -10200,13 +9936,17 @@
         <v>41.68250000000003</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="K273" t="n">
+        <v>41.3</v>
+      </c>
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
@@ -10235,14 +9975,22 @@
         <v>41.67700000000003</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="K274" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10276,12 +10024,16 @@
         <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>41.36</v>
+        <v>41.34</v>
       </c>
       <c r="K275" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="L275" t="inlineStr"/>
+        <v>41.3</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>41.6</v>
       </c>
       <c r="F2" t="n">
-        <v>2587.5762</v>
+        <v>8195.3143</v>
       </c>
       <c r="G2" t="n">
-        <v>41.62149999999998</v>
+        <v>41.62099999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.42</v>
+        <v>41.6</v>
       </c>
       <c r="C3" t="n">
-        <v>41.42</v>
+        <v>41.6</v>
       </c>
       <c r="D3" t="n">
-        <v>41.42</v>
+        <v>41.6</v>
       </c>
       <c r="E3" t="n">
-        <v>41.42</v>
+        <v>41.6</v>
       </c>
       <c r="F3" t="n">
-        <v>56625.167</v>
+        <v>2587.5762</v>
       </c>
       <c r="G3" t="n">
-        <v>41.61966666666665</v>
+        <v>41.62149999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.55</v>
+        <v>41.42</v>
       </c>
       <c r="C4" t="n">
-        <v>41.55</v>
+        <v>41.42</v>
       </c>
       <c r="D4" t="n">
-        <v>41.65</v>
+        <v>41.42</v>
       </c>
       <c r="E4" t="n">
-        <v>41.55</v>
+        <v>41.42</v>
       </c>
       <c r="F4" t="n">
-        <v>7475.527</v>
+        <v>56625.167</v>
       </c>
       <c r="G4" t="n">
-        <v>41.61733333333332</v>
+        <v>41.61966666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.58</v>
+        <v>41.55</v>
       </c>
       <c r="C5" t="n">
-        <v>41.64</v>
+        <v>41.55</v>
       </c>
       <c r="D5" t="n">
-        <v>41.64</v>
+        <v>41.65</v>
       </c>
       <c r="E5" t="n">
-        <v>41.58</v>
+        <v>41.55</v>
       </c>
       <c r="F5" t="n">
-        <v>1710.0716</v>
+        <v>7475.527</v>
       </c>
       <c r="G5" t="n">
-        <v>41.61649999999998</v>
+        <v>41.61733333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.75</v>
+        <v>41.58</v>
       </c>
       <c r="C6" t="n">
-        <v>41.75</v>
+        <v>41.64</v>
       </c>
       <c r="D6" t="n">
-        <v>41.75</v>
+        <v>41.64</v>
       </c>
       <c r="E6" t="n">
-        <v>41.75</v>
+        <v>41.58</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>1710.0716</v>
       </c>
       <c r="G6" t="n">
-        <v>41.62066666666665</v>
+        <v>41.61649999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41.55</v>
+        <v>41.75</v>
       </c>
       <c r="C7" t="n">
-        <v>41.55</v>
+        <v>41.75</v>
       </c>
       <c r="D7" t="n">
-        <v>41.55</v>
+        <v>41.75</v>
       </c>
       <c r="E7" t="n">
-        <v>41.5</v>
+        <v>41.75</v>
       </c>
       <c r="F7" t="n">
-        <v>2045.0848</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>41.61966666666665</v>
+        <v>41.62066666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.48</v>
+        <v>41.55</v>
       </c>
       <c r="C8" t="n">
-        <v>41.48</v>
+        <v>41.55</v>
       </c>
       <c r="D8" t="n">
-        <v>41.48</v>
+        <v>41.55</v>
       </c>
       <c r="E8" t="n">
-        <v>41.48</v>
+        <v>41.5</v>
       </c>
       <c r="F8" t="n">
-        <v>730</v>
+        <v>2045.0848</v>
       </c>
       <c r="G8" t="n">
-        <v>41.62149999999998</v>
+        <v>41.61966666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.55</v>
+        <v>41.48</v>
       </c>
       <c r="C9" t="n">
-        <v>41.55</v>
+        <v>41.48</v>
       </c>
       <c r="D9" t="n">
-        <v>41.55</v>
+        <v>41.48</v>
       </c>
       <c r="E9" t="n">
-        <v>41.55</v>
+        <v>41.48</v>
       </c>
       <c r="F9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="G9" t="n">
-        <v>41.62516666666666</v>
+        <v>41.62149999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.5</v>
+        <v>41.55</v>
       </c>
       <c r="C10" t="n">
-        <v>41.5</v>
+        <v>41.55</v>
       </c>
       <c r="D10" t="n">
-        <v>41.5</v>
+        <v>41.55</v>
       </c>
       <c r="E10" t="n">
-        <v>41.5</v>
+        <v>41.55</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="G10" t="n">
-        <v>41.62816666666665</v>
+        <v>41.62516666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,19 +760,23 @@
         <v>41.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2672.6878</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>41.63116666666665</v>
+        <v>41.62816666666665</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.55</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -795,10 +799,10 @@
         <v>41.5</v>
       </c>
       <c r="F12" t="n">
-        <v>13028.5667</v>
+        <v>2672.6878</v>
       </c>
       <c r="G12" t="n">
-        <v>41.63416666666664</v>
+        <v>41.63116666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +811,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +828,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41.45</v>
+        <v>41.5</v>
       </c>
       <c r="C13" t="n">
-        <v>41.42</v>
+        <v>41.5</v>
       </c>
       <c r="D13" t="n">
-        <v>41.45</v>
+        <v>41.5</v>
       </c>
       <c r="E13" t="n">
-        <v>41.42</v>
+        <v>41.5</v>
       </c>
       <c r="F13" t="n">
-        <v>31839.2578</v>
+        <v>13028.5667</v>
       </c>
       <c r="G13" t="n">
-        <v>41.63583333333331</v>
+        <v>41.63416666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.38</v>
+        <v>41.45</v>
       </c>
       <c r="C14" t="n">
-        <v>41.38</v>
+        <v>41.42</v>
       </c>
       <c r="D14" t="n">
-        <v>41.38</v>
+        <v>41.45</v>
       </c>
       <c r="E14" t="n">
-        <v>41.38</v>
+        <v>41.42</v>
       </c>
       <c r="F14" t="n">
-        <v>3298.4395</v>
+        <v>31839.2578</v>
       </c>
       <c r="G14" t="n">
-        <v>41.63833333333331</v>
+        <v>41.63583333333331</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.3</v>
+        <v>41.38</v>
       </c>
       <c r="C15" t="n">
-        <v>41.37</v>
+        <v>41.38</v>
       </c>
       <c r="D15" t="n">
-        <v>41.37</v>
+        <v>41.38</v>
       </c>
       <c r="E15" t="n">
-        <v>41.3</v>
+        <v>41.38</v>
       </c>
       <c r="F15" t="n">
-        <v>755.8542</v>
+        <v>3298.4395</v>
       </c>
       <c r="G15" t="n">
-        <v>41.63999999999998</v>
+        <v>41.63833333333331</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="C16" t="n">
-        <v>41.5</v>
+        <v>41.37</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7</v>
+        <v>41.37</v>
       </c>
       <c r="E16" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="F16" t="n">
-        <v>4111.0788</v>
+        <v>755.8542</v>
       </c>
       <c r="G16" t="n">
-        <v>41.64383333333331</v>
+        <v>41.63999999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,31 +976,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4111.0788</v>
+      </c>
+      <c r="G17" t="n">
+        <v>41.64383333333331</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>41.37</v>
       </c>
-      <c r="C17" t="n">
+      <c r="K17" t="n">
         <v>41.37</v>
       </c>
-      <c r="D17" t="n">
-        <v>41.37</v>
-      </c>
-      <c r="E17" t="n">
-        <v>41.37</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1952.3365</v>
-      </c>
-      <c r="G17" t="n">
-        <v>41.64799999999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -993,22 +1015,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.4</v>
+        <v>41.37</v>
       </c>
       <c r="C18" t="n">
-        <v>41.4</v>
+        <v>41.37</v>
       </c>
       <c r="D18" t="n">
-        <v>41.4</v>
+        <v>41.37</v>
       </c>
       <c r="E18" t="n">
-        <v>41.4</v>
+        <v>41.37</v>
       </c>
       <c r="F18" t="n">
-        <v>395</v>
+        <v>1952.3365</v>
       </c>
       <c r="G18" t="n">
-        <v>41.64916666666665</v>
+        <v>41.64799999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1056,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="C19" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D19" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E19" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="F19" t="n">
-        <v>433.984</v>
+        <v>395</v>
       </c>
       <c r="G19" t="n">
-        <v>41.65099999999998</v>
+        <v>41.64916666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1097,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="C20" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D20" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E20" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>433.984</v>
       </c>
       <c r="G20" t="n">
-        <v>41.64799999999999</v>
+        <v>41.65099999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1132,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="C21" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="D21" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="E21" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="F21" t="n">
-        <v>513.5671</v>
+        <v>250</v>
       </c>
       <c r="G21" t="n">
-        <v>41.64633333333332</v>
+        <v>41.64799999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1167,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41.62</v>
+        <v>41.6</v>
       </c>
       <c r="C22" t="n">
-        <v>41.61</v>
+        <v>41.6</v>
       </c>
       <c r="D22" t="n">
-        <v>41.62</v>
+        <v>41.6</v>
       </c>
       <c r="E22" t="n">
-        <v>41.61</v>
+        <v>41.6</v>
       </c>
       <c r="F22" t="n">
-        <v>15284.2205</v>
+        <v>513.5671</v>
       </c>
       <c r="G22" t="n">
-        <v>41.64549999999999</v>
+        <v>41.64633333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1202,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.66</v>
+        <v>41.62</v>
       </c>
       <c r="C23" t="n">
-        <v>41.66</v>
+        <v>41.61</v>
       </c>
       <c r="D23" t="n">
-        <v>41.66</v>
+        <v>41.62</v>
       </c>
       <c r="E23" t="n">
-        <v>41.66</v>
+        <v>41.61</v>
       </c>
       <c r="F23" t="n">
-        <v>210.4179</v>
+        <v>15284.2205</v>
       </c>
       <c r="G23" t="n">
-        <v>41.64349999999999</v>
+        <v>41.64549999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1237,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41.61</v>
+        <v>41.66</v>
       </c>
       <c r="C24" t="n">
-        <v>41.61</v>
+        <v>41.66</v>
       </c>
       <c r="D24" t="n">
-        <v>41.61</v>
+        <v>41.66</v>
       </c>
       <c r="E24" t="n">
-        <v>41.61</v>
+        <v>41.66</v>
       </c>
       <c r="F24" t="n">
-        <v>13970.6224</v>
+        <v>210.4179</v>
       </c>
       <c r="G24" t="n">
-        <v>41.64033333333332</v>
+        <v>41.64349999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1284,10 @@
         <v>41.61</v>
       </c>
       <c r="F25" t="n">
-        <v>6999.6</v>
+        <v>13970.6224</v>
       </c>
       <c r="G25" t="n">
-        <v>41.63683333333332</v>
+        <v>41.64033333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1307,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.46</v>
+        <v>41.61</v>
       </c>
       <c r="C26" t="n">
-        <v>41.46</v>
+        <v>41.61</v>
       </c>
       <c r="D26" t="n">
-        <v>41.46</v>
+        <v>41.61</v>
       </c>
       <c r="E26" t="n">
-        <v>41.36</v>
+        <v>41.61</v>
       </c>
       <c r="F26" t="n">
-        <v>8089.0612</v>
+        <v>6999.6</v>
       </c>
       <c r="G26" t="n">
-        <v>41.63416666666665</v>
+        <v>41.63683333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1342,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.4</v>
+        <v>41.46</v>
       </c>
       <c r="C27" t="n">
-        <v>41.4</v>
+        <v>41.46</v>
       </c>
       <c r="D27" t="n">
-        <v>41.4</v>
+        <v>41.46</v>
       </c>
       <c r="E27" t="n">
-        <v>41.4</v>
+        <v>41.36</v>
       </c>
       <c r="F27" t="n">
-        <v>5105.4179</v>
+        <v>8089.0612</v>
       </c>
       <c r="G27" t="n">
-        <v>41.63249999999999</v>
+        <v>41.63416666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1377,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.52</v>
+        <v>41.4</v>
       </c>
       <c r="C28" t="n">
-        <v>41.52</v>
+        <v>41.4</v>
       </c>
       <c r="D28" t="n">
-        <v>41.52</v>
+        <v>41.4</v>
       </c>
       <c r="E28" t="n">
-        <v>41.52</v>
+        <v>41.4</v>
       </c>
       <c r="F28" t="n">
-        <v>17165.5496</v>
+        <v>5105.4179</v>
       </c>
       <c r="G28" t="n">
-        <v>41.63599999999999</v>
+        <v>41.63249999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1412,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>41.5</v>
+        <v>41.52</v>
       </c>
       <c r="C29" t="n">
-        <v>41.33</v>
+        <v>41.52</v>
       </c>
       <c r="D29" t="n">
-        <v>41.5</v>
+        <v>41.52</v>
       </c>
       <c r="E29" t="n">
-        <v>41.33</v>
+        <v>41.52</v>
       </c>
       <c r="F29" t="n">
-        <v>11325.1377</v>
+        <v>17165.5496</v>
       </c>
       <c r="G29" t="n">
-        <v>41.63149999999999</v>
+        <v>41.63599999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1447,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41.34</v>
+        <v>41.5</v>
       </c>
       <c r="C30" t="n">
-        <v>41.34</v>
+        <v>41.33</v>
       </c>
       <c r="D30" t="n">
-        <v>41.34</v>
+        <v>41.5</v>
       </c>
       <c r="E30" t="n">
-        <v>41.34</v>
+        <v>41.33</v>
       </c>
       <c r="F30" t="n">
-        <v>810</v>
+        <v>11325.1377</v>
       </c>
       <c r="G30" t="n">
-        <v>41.62449999999999</v>
+        <v>41.63149999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>41.28</v>
+        <v>41.34</v>
       </c>
       <c r="C31" t="n">
-        <v>41.32</v>
+        <v>41.34</v>
       </c>
       <c r="D31" t="n">
         <v>41.34</v>
       </c>
       <c r="E31" t="n">
-        <v>41.25</v>
+        <v>41.34</v>
       </c>
       <c r="F31" t="n">
-        <v>25151.6293</v>
+        <v>810</v>
       </c>
       <c r="G31" t="n">
-        <v>41.62149999999999</v>
+        <v>41.62449999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1517,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>41.49</v>
+        <v>41.28</v>
       </c>
       <c r="C32" t="n">
-        <v>41.49</v>
+        <v>41.32</v>
       </c>
       <c r="D32" t="n">
-        <v>41.49</v>
+        <v>41.34</v>
       </c>
       <c r="E32" t="n">
-        <v>41.49</v>
+        <v>41.25</v>
       </c>
       <c r="F32" t="n">
-        <v>22941.347</v>
+        <v>25151.6293</v>
       </c>
       <c r="G32" t="n">
-        <v>41.62033333333332</v>
+        <v>41.62149999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1555,19 @@
         <v>41.49</v>
       </c>
       <c r="C33" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="D33" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="E33" t="n">
         <v>41.49</v>
       </c>
       <c r="F33" t="n">
-        <v>5883.3112</v>
+        <v>22941.347</v>
       </c>
       <c r="G33" t="n">
-        <v>41.61849999999999</v>
+        <v>41.62033333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="C34" t="n">
         <v>41.58</v>
@@ -1562,13 +1596,13 @@
         <v>41.58</v>
       </c>
       <c r="E34" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="F34" t="n">
-        <v>236.6718</v>
+        <v>5883.3112</v>
       </c>
       <c r="G34" t="n">
-        <v>41.61733333333332</v>
+        <v>41.61849999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1622,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41.49</v>
+        <v>41.58</v>
       </c>
       <c r="C35" t="n">
-        <v>41.49</v>
+        <v>41.58</v>
       </c>
       <c r="D35" t="n">
-        <v>41.49</v>
+        <v>41.58</v>
       </c>
       <c r="E35" t="n">
-        <v>41.49</v>
+        <v>41.58</v>
       </c>
       <c r="F35" t="n">
-        <v>9223.808000000001</v>
+        <v>236.6718</v>
       </c>
       <c r="G35" t="n">
-        <v>41.61383333333332</v>
+        <v>41.61733333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1657,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="C36" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="D36" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="E36" t="n">
-        <v>41.58</v>
+        <v>41.49</v>
       </c>
       <c r="F36" t="n">
-        <v>226.3784</v>
+        <v>9223.808000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>41.61116666666666</v>
+        <v>41.61383333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1704,10 @@
         <v>41.58</v>
       </c>
       <c r="F37" t="n">
-        <v>12791.3045</v>
+        <v>226.3784</v>
       </c>
       <c r="G37" t="n">
-        <v>41.61166666666665</v>
+        <v>41.61116666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1727,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>41.49</v>
+        <v>41.58</v>
       </c>
       <c r="C38" t="n">
-        <v>41.38</v>
+        <v>41.58</v>
       </c>
       <c r="D38" t="n">
-        <v>41.49</v>
+        <v>41.58</v>
       </c>
       <c r="E38" t="n">
-        <v>41.12</v>
+        <v>41.58</v>
       </c>
       <c r="F38" t="n">
-        <v>86526.6651</v>
+        <v>12791.3045</v>
       </c>
       <c r="G38" t="n">
-        <v>41.60616666666665</v>
+        <v>41.61166666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1762,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="C39" t="n">
         <v>41.38</v>
       </c>
-      <c r="C39" t="n">
-        <v>41.4</v>
-      </c>
       <c r="D39" t="n">
-        <v>41.4</v>
+        <v>41.49</v>
       </c>
       <c r="E39" t="n">
-        <v>41.38</v>
+        <v>41.12</v>
       </c>
       <c r="F39" t="n">
-        <v>988.508</v>
+        <v>86526.6651</v>
       </c>
       <c r="G39" t="n">
-        <v>41.60166666666665</v>
+        <v>41.60616666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1800,19 @@
         <v>41.38</v>
       </c>
       <c r="C40" t="n">
-        <v>41.36</v>
+        <v>41.4</v>
       </c>
       <c r="D40" t="n">
-        <v>41.44</v>
+        <v>41.4</v>
       </c>
       <c r="E40" t="n">
-        <v>41.32</v>
+        <v>41.38</v>
       </c>
       <c r="F40" t="n">
-        <v>34509.2779</v>
+        <v>988.508</v>
       </c>
       <c r="G40" t="n">
-        <v>41.59516666666665</v>
+        <v>41.60166666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1832,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.44</v>
+        <v>41.38</v>
       </c>
       <c r="C41" t="n">
-        <v>41.44</v>
+        <v>41.36</v>
       </c>
       <c r="D41" t="n">
         <v>41.44</v>
       </c>
       <c r="E41" t="n">
-        <v>41.44</v>
+        <v>41.32</v>
       </c>
       <c r="F41" t="n">
-        <v>10689.2389</v>
+        <v>34509.2779</v>
       </c>
       <c r="G41" t="n">
-        <v>41.58999999999999</v>
+        <v>41.59516666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1879,10 @@
         <v>41.44</v>
       </c>
       <c r="F42" t="n">
-        <v>48800.0783</v>
+        <v>10689.2389</v>
       </c>
       <c r="G42" t="n">
-        <v>41.58199999999999</v>
+        <v>41.58999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1914,10 @@
         <v>41.44</v>
       </c>
       <c r="F43" t="n">
-        <v>2805.7161</v>
+        <v>48800.0783</v>
       </c>
       <c r="G43" t="n">
-        <v>41.57399999999998</v>
+        <v>41.58199999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1937,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41.48</v>
+        <v>41.44</v>
       </c>
       <c r="C44" t="n">
-        <v>41.48</v>
+        <v>41.44</v>
       </c>
       <c r="D44" t="n">
-        <v>41.48</v>
+        <v>41.44</v>
       </c>
       <c r="E44" t="n">
-        <v>41.48</v>
+        <v>41.44</v>
       </c>
       <c r="F44" t="n">
-        <v>3818.6454</v>
+        <v>2805.7161</v>
       </c>
       <c r="G44" t="n">
-        <v>41.56666666666665</v>
+        <v>41.57399999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1975,19 @@
         <v>41.48</v>
       </c>
       <c r="C45" t="n">
-        <v>41.44</v>
+        <v>41.48</v>
       </c>
       <c r="D45" t="n">
         <v>41.48</v>
       </c>
       <c r="E45" t="n">
-        <v>41.44</v>
+        <v>41.48</v>
       </c>
       <c r="F45" t="n">
-        <v>17663.0396</v>
+        <v>3818.6454</v>
       </c>
       <c r="G45" t="n">
-        <v>41.55549999999998</v>
+        <v>41.56666666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +2007,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="C46" t="n">
         <v>41.44</v>
       </c>
-      <c r="C46" t="n">
-        <v>41.54</v>
-      </c>
       <c r="D46" t="n">
-        <v>41.55</v>
+        <v>41.48</v>
       </c>
       <c r="E46" t="n">
         <v>41.44</v>
       </c>
       <c r="F46" t="n">
-        <v>21283.3622</v>
+        <v>17663.0396</v>
       </c>
       <c r="G46" t="n">
-        <v>41.54949999999998</v>
+        <v>41.55549999999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2045,19 @@
         <v>41.44</v>
       </c>
       <c r="C47" t="n">
-        <v>41.44</v>
+        <v>41.54</v>
       </c>
       <c r="D47" t="n">
-        <v>41.44</v>
+        <v>41.55</v>
       </c>
       <c r="E47" t="n">
         <v>41.44</v>
       </c>
       <c r="F47" t="n">
-        <v>86119.4244</v>
+        <v>21283.3622</v>
       </c>
       <c r="G47" t="n">
-        <v>41.54066666666665</v>
+        <v>41.54949999999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2089,10 @@
         <v>41.44</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>86119.4244</v>
       </c>
       <c r="G48" t="n">
-        <v>41.53433333333331</v>
+        <v>41.54066666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2124,10 @@
         <v>41.44</v>
       </c>
       <c r="F49" t="n">
-        <v>25286.3777</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>41.52666666666665</v>
+        <v>41.53433333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2147,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.54</v>
+        <v>41.44</v>
       </c>
       <c r="C50" t="n">
-        <v>41.54</v>
+        <v>41.44</v>
       </c>
       <c r="D50" t="n">
-        <v>41.54</v>
+        <v>41.44</v>
       </c>
       <c r="E50" t="n">
-        <v>41.54</v>
+        <v>41.44</v>
       </c>
       <c r="F50" t="n">
-        <v>88</v>
+        <v>25286.3777</v>
       </c>
       <c r="G50" t="n">
-        <v>41.52216666666665</v>
+        <v>41.52666666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2185,19 @@
         <v>41.54</v>
       </c>
       <c r="C51" t="n">
-        <v>41.8</v>
+        <v>41.54</v>
       </c>
       <c r="D51" t="n">
-        <v>41.8</v>
+        <v>41.54</v>
       </c>
       <c r="E51" t="n">
         <v>41.54</v>
       </c>
       <c r="F51" t="n">
-        <v>9188.856299999999</v>
+        <v>88</v>
       </c>
       <c r="G51" t="n">
-        <v>41.52199999999998</v>
+        <v>41.52216666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2217,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41.51</v>
+        <v>41.54</v>
       </c>
       <c r="C52" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="D52" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="E52" t="n">
-        <v>41.51</v>
+        <v>41.54</v>
       </c>
       <c r="F52" t="n">
-        <v>6138.3537</v>
+        <v>9188.856299999999</v>
       </c>
       <c r="G52" t="n">
-        <v>41.52016666666665</v>
+        <v>41.52199999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,19 +2252,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="C53" t="n">
         <v>41.7</v>
       </c>
-      <c r="C53" t="n">
-        <v>41.8</v>
-      </c>
       <c r="D53" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="E53" t="n">
-        <v>41.7</v>
+        <v>41.51</v>
       </c>
       <c r="F53" t="n">
-        <v>69.8202</v>
+        <v>6138.3537</v>
       </c>
       <c r="G53" t="n">
         <v>41.52016666666665</v>
@@ -2256,19 +2290,19 @@
         <v>41.7</v>
       </c>
       <c r="C54" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="D54" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="E54" t="n">
         <v>41.7</v>
       </c>
       <c r="F54" t="n">
-        <v>24.7202</v>
+        <v>69.8202</v>
       </c>
       <c r="G54" t="n">
-        <v>41.52183333333332</v>
+        <v>41.52016666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2322,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41.44</v>
+        <v>41.7</v>
       </c>
       <c r="C55" t="n">
-        <v>41.44</v>
+        <v>41.7</v>
       </c>
       <c r="D55" t="n">
-        <v>41.44</v>
+        <v>41.7</v>
       </c>
       <c r="E55" t="n">
-        <v>41.44</v>
+        <v>41.7</v>
       </c>
       <c r="F55" t="n">
-        <v>37.25</v>
+        <v>24.7202</v>
       </c>
       <c r="G55" t="n">
-        <v>41.51766666666665</v>
+        <v>41.52183333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2369,10 @@
         <v>41.44</v>
       </c>
       <c r="F56" t="n">
-        <v>41590.8897</v>
+        <v>37.25</v>
       </c>
       <c r="G56" t="n">
-        <v>41.51349999999999</v>
+        <v>41.51766666666665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2392,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.43</v>
+        <v>41.44</v>
       </c>
       <c r="C57" t="n">
-        <v>41.43</v>
+        <v>41.44</v>
       </c>
       <c r="D57" t="n">
-        <v>41.43</v>
+        <v>41.44</v>
       </c>
       <c r="E57" t="n">
-        <v>41.43</v>
+        <v>41.44</v>
       </c>
       <c r="F57" t="n">
-        <v>48153.9985</v>
+        <v>41590.8897</v>
       </c>
       <c r="G57" t="n">
-        <v>41.50916666666664</v>
+        <v>41.51349999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2427,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41.2</v>
+        <v>41.43</v>
       </c>
       <c r="C58" t="n">
-        <v>41.2</v>
+        <v>41.43</v>
       </c>
       <c r="D58" t="n">
-        <v>41.2</v>
+        <v>41.43</v>
       </c>
       <c r="E58" t="n">
-        <v>41.2</v>
+        <v>41.43</v>
       </c>
       <c r="F58" t="n">
-        <v>460.6453</v>
+        <v>48153.9985</v>
       </c>
       <c r="G58" t="n">
-        <v>41.50449999999998</v>
+        <v>41.50916666666664</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2462,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="C59" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="D59" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="E59" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="F59" t="n">
-        <v>30.11</v>
+        <v>460.6453</v>
       </c>
       <c r="G59" t="n">
-        <v>41.49983333333331</v>
+        <v>41.50449999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2509,10 @@
         <v>41.3</v>
       </c>
       <c r="F60" t="n">
-        <v>4642.633</v>
+        <v>30.11</v>
       </c>
       <c r="G60" t="n">
-        <v>41.49383333333332</v>
+        <v>41.49983333333331</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2532,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>41.19</v>
+        <v>41.3</v>
       </c>
       <c r="C61" t="n">
-        <v>41.19</v>
+        <v>41.3</v>
       </c>
       <c r="D61" t="n">
-        <v>41.19</v>
+        <v>41.3</v>
       </c>
       <c r="E61" t="n">
-        <v>41.19</v>
+        <v>41.3</v>
       </c>
       <c r="F61" t="n">
-        <v>2339.3209</v>
+        <v>4642.633</v>
       </c>
       <c r="G61" t="n">
-        <v>41.48699999999999</v>
+        <v>41.49383333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2567,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>41.3</v>
+        <v>41.19</v>
       </c>
       <c r="C62" t="n">
-        <v>41.43</v>
+        <v>41.19</v>
       </c>
       <c r="D62" t="n">
-        <v>41.43</v>
+        <v>41.19</v>
       </c>
       <c r="E62" t="n">
-        <v>41.3</v>
+        <v>41.19</v>
       </c>
       <c r="F62" t="n">
-        <v>271.0555</v>
+        <v>2339.3209</v>
       </c>
       <c r="G62" t="n">
-        <v>41.48416666666665</v>
+        <v>41.48699999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2602,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>41.43</v>
+        <v>41.3</v>
       </c>
       <c r="C63" t="n">
         <v>41.43</v>
@@ -2577,13 +2611,13 @@
         <v>41.43</v>
       </c>
       <c r="E63" t="n">
-        <v>41.43</v>
+        <v>41.3</v>
       </c>
       <c r="F63" t="n">
-        <v>1307.8889</v>
+        <v>271.0555</v>
       </c>
       <c r="G63" t="n">
-        <v>41.48433333333332</v>
+        <v>41.48416666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2640,19 @@
         <v>41.43</v>
       </c>
       <c r="C64" t="n">
-        <v>41.53</v>
+        <v>41.43</v>
       </c>
       <c r="D64" t="n">
-        <v>41.53</v>
+        <v>41.43</v>
       </c>
       <c r="E64" t="n">
         <v>41.43</v>
       </c>
       <c r="F64" t="n">
-        <v>8675.4961</v>
+        <v>1307.8889</v>
       </c>
       <c r="G64" t="n">
-        <v>41.48399999999999</v>
+        <v>41.48433333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2672,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>41.59</v>
+        <v>41.43</v>
       </c>
       <c r="C65" t="n">
-        <v>41.59</v>
+        <v>41.53</v>
       </c>
       <c r="D65" t="n">
-        <v>41.59</v>
+        <v>41.53</v>
       </c>
       <c r="E65" t="n">
-        <v>41.59</v>
+        <v>41.43</v>
       </c>
       <c r="F65" t="n">
-        <v>18.5953</v>
+        <v>8675.4961</v>
       </c>
       <c r="G65" t="n">
-        <v>41.48316666666665</v>
+        <v>41.48399999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2719,10 @@
         <v>41.59</v>
       </c>
       <c r="F66" t="n">
-        <v>343.6587</v>
+        <v>18.5953</v>
       </c>
       <c r="G66" t="n">
-        <v>41.48049999999999</v>
+        <v>41.48316666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2742,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>41.47</v>
+        <v>41.59</v>
       </c>
       <c r="C67" t="n">
-        <v>41.47</v>
+        <v>41.59</v>
       </c>
       <c r="D67" t="n">
-        <v>41.47</v>
+        <v>41.59</v>
       </c>
       <c r="E67" t="n">
-        <v>41.47</v>
+        <v>41.59</v>
       </c>
       <c r="F67" t="n">
-        <v>1225.6703</v>
+        <v>343.6587</v>
       </c>
       <c r="G67" t="n">
-        <v>41.47916666666665</v>
+        <v>41.48049999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2777,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41.45</v>
+        <v>41.47</v>
       </c>
       <c r="C68" t="n">
-        <v>41.59</v>
+        <v>41.47</v>
       </c>
       <c r="D68" t="n">
-        <v>41.59</v>
+        <v>41.47</v>
       </c>
       <c r="E68" t="n">
-        <v>41.45</v>
+        <v>41.47</v>
       </c>
       <c r="F68" t="n">
-        <v>787.8049</v>
+        <v>1225.6703</v>
       </c>
       <c r="G68" t="n">
-        <v>41.48099999999999</v>
+        <v>41.47916666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2812,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="C69" t="n">
         <v>41.59</v>
       </c>
-      <c r="C69" t="n">
-        <v>41.62</v>
-      </c>
       <c r="D69" t="n">
-        <v>41.62</v>
+        <v>41.59</v>
       </c>
       <c r="E69" t="n">
-        <v>41.59</v>
+        <v>41.45</v>
       </c>
       <c r="F69" t="n">
-        <v>15519.5986</v>
+        <v>787.8049</v>
       </c>
       <c r="G69" t="n">
-        <v>41.48216666666665</v>
+        <v>41.48099999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2847,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.62</v>
+        <v>41.59</v>
       </c>
       <c r="C70" t="n">
         <v>41.62</v>
@@ -2822,13 +2856,13 @@
         <v>41.62</v>
       </c>
       <c r="E70" t="n">
-        <v>41.62</v>
+        <v>41.59</v>
       </c>
       <c r="F70" t="n">
-        <v>1284.1628</v>
+        <v>15519.5986</v>
       </c>
       <c r="G70" t="n">
-        <v>41.48416666666665</v>
+        <v>41.48216666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2882,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.4</v>
+        <v>41.62</v>
       </c>
       <c r="C71" t="n">
-        <v>41.51</v>
+        <v>41.62</v>
       </c>
       <c r="D71" t="n">
-        <v>41.51</v>
+        <v>41.62</v>
       </c>
       <c r="E71" t="n">
-        <v>41.4</v>
+        <v>41.62</v>
       </c>
       <c r="F71" t="n">
-        <v>113</v>
+        <v>1284.1628</v>
       </c>
       <c r="G71" t="n">
-        <v>41.48433333333332</v>
+        <v>41.48416666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2920,19 @@
         <v>41.4</v>
       </c>
       <c r="C72" t="n">
-        <v>41.41</v>
+        <v>41.51</v>
       </c>
       <c r="D72" t="n">
-        <v>41.41</v>
+        <v>41.51</v>
       </c>
       <c r="E72" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="F72" t="n">
-        <v>109227.4702</v>
+        <v>113</v>
       </c>
       <c r="G72" t="n">
-        <v>41.48283333333332</v>
+        <v>41.48433333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.41</v>
+        <v>41.4</v>
       </c>
       <c r="C73" t="n">
         <v>41.41</v>
@@ -2927,13 +2961,13 @@
         <v>41.41</v>
       </c>
       <c r="E73" t="n">
-        <v>41.41</v>
+        <v>41.1</v>
       </c>
       <c r="F73" t="n">
-        <v>919.8017</v>
+        <v>109227.4702</v>
       </c>
       <c r="G73" t="n">
-        <v>41.48266666666665</v>
+        <v>41.48283333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2987,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="C74" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="D74" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="E74" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="F74" t="n">
-        <v>3225.2307</v>
+        <v>919.8017</v>
       </c>
       <c r="G74" t="n">
-        <v>41.48333333333331</v>
+        <v>41.48266666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3022,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.43</v>
+        <v>41.42</v>
       </c>
       <c r="C75" t="n">
-        <v>41.43</v>
+        <v>41.42</v>
       </c>
       <c r="D75" t="n">
-        <v>41.43</v>
+        <v>41.42</v>
       </c>
       <c r="E75" t="n">
-        <v>41.43</v>
+        <v>41.42</v>
       </c>
       <c r="F75" t="n">
-        <v>1080</v>
+        <v>3225.2307</v>
       </c>
       <c r="G75" t="n">
-        <v>41.48433333333331</v>
+        <v>41.48333333333331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,19 +3057,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41.5</v>
+        <v>41.43</v>
       </c>
       <c r="C76" t="n">
-        <v>41.5</v>
+        <v>41.43</v>
       </c>
       <c r="D76" t="n">
-        <v>41.5</v>
+        <v>41.43</v>
       </c>
       <c r="E76" t="n">
-        <v>41.5</v>
+        <v>41.43</v>
       </c>
       <c r="F76" t="n">
-        <v>4519.448</v>
+        <v>1080</v>
       </c>
       <c r="G76" t="n">
         <v>41.48433333333331</v>
@@ -3058,22 +3092,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>41.51</v>
+        <v>41.5</v>
       </c>
       <c r="C77" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="D77" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="E77" t="n">
-        <v>41.51</v>
+        <v>41.5</v>
       </c>
       <c r="F77" t="n">
-        <v>979.5522</v>
+        <v>4519.448</v>
       </c>
       <c r="G77" t="n">
-        <v>41.48816666666664</v>
+        <v>41.48433333333331</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41.6</v>
+        <v>41.51</v>
       </c>
       <c r="C78" t="n">
         <v>41.6</v>
@@ -3102,13 +3136,13 @@
         <v>41.6</v>
       </c>
       <c r="E78" t="n">
-        <v>41.6</v>
+        <v>41.51</v>
       </c>
       <c r="F78" t="n">
-        <v>408.6412</v>
+        <v>979.5522</v>
       </c>
       <c r="G78" t="n">
-        <v>41.49149999999997</v>
+        <v>41.48816666666664</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3162,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41.43</v>
+        <v>41.6</v>
       </c>
       <c r="C79" t="n">
-        <v>41.43</v>
+        <v>41.6</v>
       </c>
       <c r="D79" t="n">
-        <v>41.43</v>
+        <v>41.6</v>
       </c>
       <c r="E79" t="n">
-        <v>41.43</v>
+        <v>41.6</v>
       </c>
       <c r="F79" t="n">
-        <v>928.8021</v>
+        <v>408.6412</v>
       </c>
       <c r="G79" t="n">
-        <v>41.4903333333333</v>
+        <v>41.49149999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3197,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.6</v>
+        <v>41.43</v>
       </c>
       <c r="C80" t="n">
-        <v>41.6</v>
+        <v>41.43</v>
       </c>
       <c r="D80" t="n">
-        <v>41.6</v>
+        <v>41.43</v>
       </c>
       <c r="E80" t="n">
-        <v>41.6</v>
+        <v>41.43</v>
       </c>
       <c r="F80" t="n">
-        <v>25000</v>
+        <v>928.8021</v>
       </c>
       <c r="G80" t="n">
-        <v>41.49366666666663</v>
+        <v>41.4903333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3232,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.73</v>
+        <v>41.6</v>
       </c>
       <c r="C81" t="n">
-        <v>41.73</v>
+        <v>41.6</v>
       </c>
       <c r="D81" t="n">
-        <v>41.73</v>
+        <v>41.6</v>
       </c>
       <c r="E81" t="n">
-        <v>41.73</v>
+        <v>41.6</v>
       </c>
       <c r="F81" t="n">
-        <v>9006.01485741</v>
+        <v>25000</v>
       </c>
       <c r="G81" t="n">
-        <v>41.4958333333333</v>
+        <v>41.49366666666663</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3267,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41.7</v>
+        <v>41.73</v>
       </c>
       <c r="C82" t="n">
-        <v>41.7</v>
+        <v>41.73</v>
       </c>
       <c r="D82" t="n">
-        <v>41.7</v>
+        <v>41.73</v>
       </c>
       <c r="E82" t="n">
-        <v>41.7</v>
+        <v>41.73</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>9006.01485741</v>
       </c>
       <c r="G82" t="n">
-        <v>41.49733333333329</v>
+        <v>41.4958333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3314,10 @@
         <v>41.7</v>
       </c>
       <c r="F83" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>41.49799999999996</v>
+        <v>41.49733333333329</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3337,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>41.72</v>
+        <v>41.7</v>
       </c>
       <c r="C84" t="n">
-        <v>41.72</v>
+        <v>41.7</v>
       </c>
       <c r="D84" t="n">
-        <v>41.72</v>
+        <v>41.7</v>
       </c>
       <c r="E84" t="n">
-        <v>41.72</v>
+        <v>41.7</v>
       </c>
       <c r="F84" t="n">
-        <v>3173.9546</v>
+        <v>9000</v>
       </c>
       <c r="G84" t="n">
-        <v>41.49983333333329</v>
+        <v>41.49799999999996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3372,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.75</v>
+        <v>41.72</v>
       </c>
       <c r="C85" t="n">
-        <v>41.75</v>
+        <v>41.72</v>
       </c>
       <c r="D85" t="n">
-        <v>41.75</v>
+        <v>41.72</v>
       </c>
       <c r="E85" t="n">
-        <v>41.75</v>
+        <v>41.72</v>
       </c>
       <c r="F85" t="n">
-        <v>3699.1248</v>
+        <v>3173.9546</v>
       </c>
       <c r="G85" t="n">
-        <v>41.50216666666662</v>
+        <v>41.49983333333329</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3410,19 @@
         <v>41.75</v>
       </c>
       <c r="C86" t="n">
-        <v>41.88</v>
+        <v>41.75</v>
       </c>
       <c r="D86" t="n">
-        <v>41.88</v>
+        <v>41.75</v>
       </c>
       <c r="E86" t="n">
         <v>41.75</v>
       </c>
       <c r="F86" t="n">
-        <v>46267.6818</v>
+        <v>3699.1248</v>
       </c>
       <c r="G86" t="n">
-        <v>41.50916666666662</v>
+        <v>41.50216666666662</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3442,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41.86</v>
+        <v>41.75</v>
       </c>
       <c r="C87" t="n">
-        <v>41.86</v>
+        <v>41.88</v>
       </c>
       <c r="D87" t="n">
-        <v>41.86</v>
+        <v>41.88</v>
       </c>
       <c r="E87" t="n">
-        <v>41.86</v>
+        <v>41.75</v>
       </c>
       <c r="F87" t="n">
-        <v>64.72580000000001</v>
+        <v>46267.6818</v>
       </c>
       <c r="G87" t="n">
-        <v>41.51683333333329</v>
+        <v>41.50916666666662</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3477,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>42.02</v>
+        <v>41.86</v>
       </c>
       <c r="C88" t="n">
-        <v>42.02</v>
+        <v>41.86</v>
       </c>
       <c r="D88" t="n">
-        <v>42.02</v>
+        <v>41.86</v>
       </c>
       <c r="E88" t="n">
-        <v>42.02</v>
+        <v>41.86</v>
       </c>
       <c r="F88" t="n">
-        <v>69.9469</v>
+        <v>64.72580000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>41.52516666666663</v>
+        <v>41.51683333333329</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3515,19 @@
         <v>42.02</v>
       </c>
       <c r="C89" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="D89" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="E89" t="n">
         <v>42.02</v>
       </c>
       <c r="F89" t="n">
-        <v>25678.5269</v>
+        <v>69.9469</v>
       </c>
       <c r="G89" t="n">
-        <v>41.5368333333333</v>
+        <v>41.52516666666663</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3547,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="C90" t="n">
         <v>42.03</v>
       </c>
-      <c r="C90" t="n">
-        <v>42.09</v>
-      </c>
       <c r="D90" t="n">
-        <v>42.09</v>
+        <v>42.03</v>
       </c>
       <c r="E90" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="F90" t="n">
-        <v>14.7617</v>
+        <v>25678.5269</v>
       </c>
       <c r="G90" t="n">
-        <v>41.54933333333329</v>
+        <v>41.5368333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3582,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="C91" t="n">
         <v>42.09</v>
       </c>
-      <c r="C91" t="n">
-        <v>42.2</v>
-      </c>
       <c r="D91" t="n">
-        <v>42.2</v>
+        <v>42.09</v>
       </c>
       <c r="E91" t="n">
-        <v>42.09</v>
+        <v>42.03</v>
       </c>
       <c r="F91" t="n">
-        <v>5724.2874</v>
+        <v>14.7617</v>
       </c>
       <c r="G91" t="n">
-        <v>41.56399999999996</v>
+        <v>41.54933333333329</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3617,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="C92" t="n">
         <v>42.2</v>
       </c>
-      <c r="C92" t="n">
-        <v>42.37</v>
-      </c>
       <c r="D92" t="n">
-        <v>42.37</v>
+        <v>42.2</v>
       </c>
       <c r="E92" t="n">
-        <v>42.2</v>
+        <v>42.09</v>
       </c>
       <c r="F92" t="n">
-        <v>19060.6478</v>
+        <v>5724.2874</v>
       </c>
       <c r="G92" t="n">
-        <v>41.57866666666663</v>
+        <v>41.56399999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3652,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>42.07</v>
+        <v>42.2</v>
       </c>
       <c r="C93" t="n">
-        <v>42.35</v>
+        <v>42.37</v>
       </c>
       <c r="D93" t="n">
-        <v>42.35</v>
+        <v>42.37</v>
       </c>
       <c r="E93" t="n">
-        <v>42.07</v>
+        <v>42.2</v>
       </c>
       <c r="F93" t="n">
-        <v>581.3821</v>
+        <v>19060.6478</v>
       </c>
       <c r="G93" t="n">
-        <v>41.59149999999996</v>
+        <v>41.57866666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,7 +3687,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>42.35</v>
+        <v>42.07</v>
       </c>
       <c r="C94" t="n">
         <v>42.35</v>
@@ -3662,19 +3696,19 @@
         <v>42.35</v>
       </c>
       <c r="E94" t="n">
-        <v>42.35</v>
+        <v>42.07</v>
       </c>
       <c r="F94" t="n">
-        <v>400</v>
+        <v>581.3821</v>
       </c>
       <c r="G94" t="n">
-        <v>41.60433333333329</v>
+        <v>41.59149999999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3688,7 +3722,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>42.2</v>
+        <v>42.35</v>
       </c>
       <c r="C95" t="n">
         <v>42.35</v>
@@ -3697,19 +3731,19 @@
         <v>42.35</v>
       </c>
       <c r="E95" t="n">
-        <v>42.2</v>
+        <v>42.35</v>
       </c>
       <c r="F95" t="n">
-        <v>40376.3772</v>
+        <v>400</v>
       </c>
       <c r="G95" t="n">
-        <v>41.61866666666663</v>
+        <v>41.60433333333329</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3723,28 +3757,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>42.14</v>
+        <v>42.2</v>
       </c>
       <c r="C96" t="n">
-        <v>42.14</v>
+        <v>42.35</v>
       </c>
       <c r="D96" t="n">
-        <v>42.14</v>
+        <v>42.35</v>
       </c>
       <c r="E96" t="n">
-        <v>42.14</v>
+        <v>42.2</v>
       </c>
       <c r="F96" t="n">
-        <v>17733.6889</v>
+        <v>40376.3772</v>
       </c>
       <c r="G96" t="n">
-        <v>41.62799999999996</v>
+        <v>41.61866666666663</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3761,19 +3795,19 @@
         <v>42.14</v>
       </c>
       <c r="C97" t="n">
-        <v>42.33</v>
+        <v>42.14</v>
       </c>
       <c r="D97" t="n">
-        <v>42.33</v>
+        <v>42.14</v>
       </c>
       <c r="E97" t="n">
         <v>42.14</v>
       </c>
       <c r="F97" t="n">
-        <v>32443.7531</v>
+        <v>17733.6889</v>
       </c>
       <c r="G97" t="n">
-        <v>41.64049999999996</v>
+        <v>41.62799999999996</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3827,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>42.33</v>
+        <v>42.14</v>
       </c>
       <c r="C98" t="n">
         <v>42.33</v>
@@ -3802,13 +3836,13 @@
         <v>42.33</v>
       </c>
       <c r="E98" t="n">
-        <v>42.33</v>
+        <v>42.14</v>
       </c>
       <c r="F98" t="n">
-        <v>107.5985</v>
+        <v>32443.7531</v>
       </c>
       <c r="G98" t="n">
-        <v>41.65633333333329</v>
+        <v>41.64049999999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3874,10 @@
         <v>42.33</v>
       </c>
       <c r="F99" t="n">
-        <v>501.5588</v>
+        <v>107.5985</v>
       </c>
       <c r="G99" t="n">
-        <v>41.67183333333329</v>
+        <v>41.65633333333329</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3897,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>42.3</v>
+        <v>42.33</v>
       </c>
       <c r="C100" t="n">
-        <v>42.3</v>
+        <v>42.33</v>
       </c>
       <c r="D100" t="n">
-        <v>42.3</v>
+        <v>42.33</v>
       </c>
       <c r="E100" t="n">
-        <v>42.3</v>
+        <v>42.33</v>
       </c>
       <c r="F100" t="n">
-        <v>596.1917</v>
+        <v>501.5588</v>
       </c>
       <c r="G100" t="n">
-        <v>41.68749999999996</v>
+        <v>41.67183333333329</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3932,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="C101" t="n">
-        <v>42.07</v>
+        <v>42.3</v>
       </c>
       <c r="D101" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="E101" t="n">
-        <v>42.07</v>
+        <v>42.3</v>
       </c>
       <c r="F101" t="n">
-        <v>5651.9762</v>
+        <v>596.1917</v>
       </c>
       <c r="G101" t="n">
-        <v>41.69799999999996</v>
+        <v>41.68749999999996</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3967,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.02</v>
+        <v>42.1</v>
       </c>
       <c r="C102" t="n">
         <v>42.07</v>
       </c>
       <c r="D102" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="E102" t="n">
         <v>42.07</v>
       </c>
-      <c r="E102" t="n">
-        <v>42.02</v>
-      </c>
       <c r="F102" t="n">
-        <v>10093.8686</v>
+        <v>5651.9762</v>
       </c>
       <c r="G102" t="n">
-        <v>41.70849999999996</v>
+        <v>41.69799999999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +4002,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>42.07</v>
+        <v>42.02</v>
       </c>
       <c r="C103" t="n">
         <v>42.07</v>
@@ -3977,13 +4011,13 @@
         <v>42.07</v>
       </c>
       <c r="E103" t="n">
-        <v>42.07</v>
+        <v>42.02</v>
       </c>
       <c r="F103" t="n">
-        <v>306.3355</v>
+        <v>10093.8686</v>
       </c>
       <c r="G103" t="n">
-        <v>41.71899999999996</v>
+        <v>41.70849999999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4037,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.06</v>
+        <v>42.07</v>
       </c>
       <c r="C104" t="n">
-        <v>42.02</v>
+        <v>42.07</v>
       </c>
       <c r="D104" t="n">
-        <v>42.06</v>
+        <v>42.07</v>
       </c>
       <c r="E104" t="n">
-        <v>42.02</v>
+        <v>42.07</v>
       </c>
       <c r="F104" t="n">
-        <v>22458.7997</v>
+        <v>306.3355</v>
       </c>
       <c r="G104" t="n">
-        <v>41.72799999999996</v>
+        <v>41.71899999999996</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4072,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42</v>
+        <v>42.06</v>
       </c>
       <c r="C105" t="n">
-        <v>41.99</v>
+        <v>42.02</v>
       </c>
       <c r="D105" t="n">
-        <v>42</v>
+        <v>42.06</v>
       </c>
       <c r="E105" t="n">
-        <v>41.97</v>
+        <v>42.02</v>
       </c>
       <c r="F105" t="n">
-        <v>20838.598</v>
+        <v>22458.7997</v>
       </c>
       <c r="G105" t="n">
-        <v>41.73716666666662</v>
+        <v>41.72799999999996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42.02</v>
+        <v>42</v>
       </c>
       <c r="C106" t="n">
-        <v>42.02</v>
+        <v>41.99</v>
       </c>
       <c r="D106" t="n">
-        <v>42.02</v>
+        <v>42</v>
       </c>
       <c r="E106" t="n">
-        <v>42.02</v>
+        <v>41.97</v>
       </c>
       <c r="F106" t="n">
-        <v>418.897</v>
+        <v>20838.598</v>
       </c>
       <c r="G106" t="n">
-        <v>41.74516666666662</v>
+        <v>41.73716666666662</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.97</v>
+        <v>42.02</v>
       </c>
       <c r="C107" t="n">
-        <v>41.83</v>
+        <v>42.02</v>
       </c>
       <c r="D107" t="n">
-        <v>41.97</v>
+        <v>42.02</v>
       </c>
       <c r="E107" t="n">
-        <v>41.83</v>
+        <v>42.02</v>
       </c>
       <c r="F107" t="n">
-        <v>20271.7091</v>
+        <v>418.897</v>
       </c>
       <c r="G107" t="n">
-        <v>41.75166666666662</v>
+        <v>41.74516666666662</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4177,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>41.76</v>
+        <v>41.97</v>
       </c>
       <c r="C108" t="n">
-        <v>41.76</v>
+        <v>41.83</v>
       </c>
       <c r="D108" t="n">
-        <v>41.76</v>
+        <v>41.97</v>
       </c>
       <c r="E108" t="n">
-        <v>41.76</v>
+        <v>41.83</v>
       </c>
       <c r="F108" t="n">
-        <v>141.64</v>
+        <v>20271.7091</v>
       </c>
       <c r="G108" t="n">
-        <v>41.75699999999996</v>
+        <v>41.75166666666662</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4215,19 @@
         <v>41.76</v>
       </c>
       <c r="C109" t="n">
-        <v>41.64</v>
+        <v>41.76</v>
       </c>
       <c r="D109" t="n">
         <v>41.76</v>
       </c>
       <c r="E109" t="n">
-        <v>41.64</v>
+        <v>41.76</v>
       </c>
       <c r="F109" t="n">
-        <v>1646.9685</v>
+        <v>141.64</v>
       </c>
       <c r="G109" t="n">
-        <v>41.76033333333329</v>
+        <v>41.75699999999996</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4247,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>41.71</v>
+        <v>41.76</v>
       </c>
       <c r="C110" t="n">
-        <v>41.71</v>
+        <v>41.64</v>
       </c>
       <c r="D110" t="n">
-        <v>41.71</v>
+        <v>41.76</v>
       </c>
       <c r="E110" t="n">
-        <v>41.71</v>
+        <v>41.64</v>
       </c>
       <c r="F110" t="n">
-        <v>24309.4081</v>
+        <v>1646.9685</v>
       </c>
       <c r="G110" t="n">
-        <v>41.76316666666662</v>
+        <v>41.76033333333329</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4294,10 @@
         <v>41.71</v>
       </c>
       <c r="F111" t="n">
-        <v>166.1192</v>
+        <v>24309.4081</v>
       </c>
       <c r="G111" t="n">
-        <v>41.76166666666662</v>
+        <v>41.76316666666662</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4329,10 @@
         <v>41.71</v>
       </c>
       <c r="F112" t="n">
-        <v>33.2258</v>
+        <v>166.1192</v>
       </c>
       <c r="G112" t="n">
-        <v>41.76183333333329</v>
+        <v>41.76166666666662</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4352,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>41.9</v>
+        <v>41.71</v>
       </c>
       <c r="C113" t="n">
-        <v>41.9</v>
+        <v>41.71</v>
       </c>
       <c r="D113" t="n">
-        <v>41.9</v>
+        <v>41.71</v>
       </c>
       <c r="E113" t="n">
-        <v>41.9</v>
+        <v>41.71</v>
       </c>
       <c r="F113" t="n">
-        <v>2743.8</v>
+        <v>33.2258</v>
       </c>
       <c r="G113" t="n">
-        <v>41.76349999999995</v>
+        <v>41.76183333333329</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4387,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="C114" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="D114" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="E114" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="F114" t="n">
-        <v>131.8182</v>
+        <v>2743.8</v>
       </c>
       <c r="G114" t="n">
-        <v>41.76849999999995</v>
+        <v>41.76349999999995</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,7 +4422,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.96</v>
+        <v>42</v>
       </c>
       <c r="C115" t="n">
         <v>42</v>
@@ -4397,13 +4431,13 @@
         <v>42</v>
       </c>
       <c r="E115" t="n">
-        <v>41.96</v>
+        <v>42</v>
       </c>
       <c r="F115" t="n">
-        <v>3317.4447</v>
+        <v>131.8182</v>
       </c>
       <c r="G115" t="n">
-        <v>41.77783333333329</v>
+        <v>41.76849999999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4457,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>41.95</v>
+        <v>41.96</v>
       </c>
       <c r="C116" t="n">
-        <v>41.95</v>
+        <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>41.95</v>
+        <v>42</v>
       </c>
       <c r="E116" t="n">
-        <v>41.95</v>
+        <v>41.96</v>
       </c>
       <c r="F116" t="n">
-        <v>56.2629</v>
+        <v>3317.4447</v>
       </c>
       <c r="G116" t="n">
-        <v>41.78633333333328</v>
+        <v>41.77783333333329</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4504,10 @@
         <v>41.95</v>
       </c>
       <c r="F117" t="n">
-        <v>843.7371000000001</v>
+        <v>56.2629</v>
       </c>
       <c r="G117" t="n">
-        <v>41.79499999999995</v>
+        <v>41.78633333333328</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4539,10 @@
         <v>41.95</v>
       </c>
       <c r="F118" t="n">
-        <v>130.1279</v>
+        <v>843.7371000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>41.80749999999995</v>
+        <v>41.79499999999995</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4574,10 @@
         <v>41.95</v>
       </c>
       <c r="F119" t="n">
-        <v>18.2945</v>
+        <v>130.1279</v>
       </c>
       <c r="G119" t="n">
-        <v>41.81833333333328</v>
+        <v>41.80749999999995</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4609,10 @@
         <v>41.95</v>
       </c>
       <c r="F120" t="n">
-        <v>7.8405</v>
+        <v>18.2945</v>
       </c>
       <c r="G120" t="n">
-        <v>41.82916666666661</v>
+        <v>41.81833333333328</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4632,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>41.89</v>
+        <v>41.95</v>
       </c>
       <c r="C121" t="n">
-        <v>41.89</v>
+        <v>41.95</v>
       </c>
       <c r="D121" t="n">
-        <v>41.89</v>
+        <v>41.95</v>
       </c>
       <c r="E121" t="n">
-        <v>41.89</v>
+        <v>41.95</v>
       </c>
       <c r="F121" t="n">
-        <v>234.9923</v>
+        <v>7.8405</v>
       </c>
       <c r="G121" t="n">
-        <v>41.84083333333327</v>
+        <v>41.82916666666661</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4667,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>41.98</v>
+        <v>41.89</v>
       </c>
       <c r="C122" t="n">
-        <v>41.98</v>
+        <v>41.89</v>
       </c>
       <c r="D122" t="n">
-        <v>41.98</v>
+        <v>41.89</v>
       </c>
       <c r="E122" t="n">
-        <v>41.98</v>
+        <v>41.89</v>
       </c>
       <c r="F122" t="n">
-        <v>78.65770000000001</v>
+        <v>234.9923</v>
       </c>
       <c r="G122" t="n">
-        <v>41.84999999999994</v>
+        <v>41.84083333333327</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4702,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>42</v>
+        <v>41.98</v>
       </c>
       <c r="C123" t="n">
-        <v>42</v>
+        <v>41.98</v>
       </c>
       <c r="D123" t="n">
-        <v>42</v>
+        <v>41.98</v>
       </c>
       <c r="E123" t="n">
-        <v>42</v>
+        <v>41.98</v>
       </c>
       <c r="F123" t="n">
-        <v>14846.5643</v>
+        <v>78.65770000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>41.85949999999994</v>
+        <v>41.84999999999994</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4740,19 @@
         <v>42</v>
       </c>
       <c r="C124" t="n">
-        <v>42.02</v>
+        <v>42</v>
       </c>
       <c r="D124" t="n">
-        <v>42.02</v>
+        <v>42</v>
       </c>
       <c r="E124" t="n">
         <v>42</v>
       </c>
       <c r="F124" t="n">
-        <v>52.9602</v>
+        <v>14846.5643</v>
       </c>
       <c r="G124" t="n">
-        <v>41.86766666666661</v>
+        <v>41.85949999999994</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4772,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>42.06</v>
+        <v>42</v>
       </c>
       <c r="C125" t="n">
-        <v>42.06</v>
+        <v>42.02</v>
       </c>
       <c r="D125" t="n">
-        <v>42.06</v>
+        <v>42.02</v>
       </c>
       <c r="E125" t="n">
-        <v>42.06</v>
+        <v>42</v>
       </c>
       <c r="F125" t="n">
-        <v>87.5836</v>
+        <v>52.9602</v>
       </c>
       <c r="G125" t="n">
-        <v>41.87549999999994</v>
+        <v>41.86766666666661</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4807,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>42.11</v>
+        <v>42.06</v>
       </c>
       <c r="C126" t="n">
-        <v>42.11</v>
+        <v>42.06</v>
       </c>
       <c r="D126" t="n">
-        <v>42.11</v>
+        <v>42.06</v>
       </c>
       <c r="E126" t="n">
-        <v>42.11</v>
+        <v>42.06</v>
       </c>
       <c r="F126" t="n">
-        <v>35.7636</v>
+        <v>87.5836</v>
       </c>
       <c r="G126" t="n">
-        <v>41.8841666666666</v>
+        <v>41.87549999999994</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4845,19 @@
         <v>42.11</v>
       </c>
       <c r="C127" t="n">
-        <v>42.21</v>
+        <v>42.11</v>
       </c>
       <c r="D127" t="n">
-        <v>42.21</v>
+        <v>42.11</v>
       </c>
       <c r="E127" t="n">
         <v>42.11</v>
       </c>
       <c r="F127" t="n">
-        <v>12128.1599</v>
+        <v>35.7636</v>
       </c>
       <c r="G127" t="n">
-        <v>41.89649999999994</v>
+        <v>41.8841666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4877,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>42</v>
+        <v>42.11</v>
       </c>
       <c r="C128" t="n">
+        <v>42.21</v>
+      </c>
+      <c r="D128" t="n">
+        <v>42.21</v>
+      </c>
+      <c r="E128" t="n">
         <v>42.11</v>
       </c>
-      <c r="D128" t="n">
-        <v>42.11</v>
-      </c>
-      <c r="E128" t="n">
-        <v>41.91</v>
-      </c>
       <c r="F128" t="n">
-        <v>6094.2237</v>
+        <v>12128.1599</v>
       </c>
       <c r="G128" t="n">
-        <v>41.9051666666666</v>
+        <v>41.89649999999994</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4912,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>42</v>
+      </c>
+      <c r="C129" t="n">
         <v>42.11</v>
-      </c>
-      <c r="C129" t="n">
-        <v>41.9</v>
       </c>
       <c r="D129" t="n">
         <v>42.11</v>
       </c>
       <c r="E129" t="n">
-        <v>41.9</v>
+        <v>41.91</v>
       </c>
       <c r="F129" t="n">
-        <v>4030.7879</v>
+        <v>6094.2237</v>
       </c>
       <c r="G129" t="n">
-        <v>41.90983333333327</v>
+        <v>41.9051666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4947,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>41.9</v>
+        <v>42.11</v>
       </c>
       <c r="C130" t="n">
         <v>41.9</v>
       </c>
       <c r="D130" t="n">
-        <v>41.9</v>
+        <v>42.11</v>
       </c>
       <c r="E130" t="n">
         <v>41.9</v>
       </c>
       <c r="F130" t="n">
-        <v>266.716</v>
+        <v>4030.7879</v>
       </c>
       <c r="G130" t="n">
-        <v>41.91449999999995</v>
+        <v>41.90983333333327</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4982,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>41.95</v>
+        <v>41.9</v>
       </c>
       <c r="C131" t="n">
-        <v>41.79</v>
+        <v>41.9</v>
       </c>
       <c r="D131" t="n">
-        <v>42.09</v>
+        <v>41.9</v>
       </c>
       <c r="E131" t="n">
-        <v>41.79</v>
+        <v>41.9</v>
       </c>
       <c r="F131" t="n">
-        <v>39144.31554568</v>
+        <v>266.716</v>
       </c>
       <c r="G131" t="n">
-        <v>41.91916666666661</v>
+        <v>41.91449999999995</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5017,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>41.89</v>
+        <v>41.95</v>
       </c>
       <c r="C132" t="n">
-        <v>41.89</v>
+        <v>41.79</v>
       </c>
       <c r="D132" t="n">
-        <v>41.89</v>
+        <v>42.09</v>
       </c>
       <c r="E132" t="n">
-        <v>41.89</v>
+        <v>41.79</v>
       </c>
       <c r="F132" t="n">
-        <v>1400</v>
+        <v>39144.31554568</v>
       </c>
       <c r="G132" t="n">
-        <v>41.92716666666661</v>
+        <v>41.91916666666661</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5052,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>41.79</v>
+        <v>41.89</v>
       </c>
       <c r="C133" t="n">
-        <v>41.79</v>
+        <v>41.89</v>
       </c>
       <c r="D133" t="n">
-        <v>41.79</v>
+        <v>41.89</v>
       </c>
       <c r="E133" t="n">
-        <v>41.79</v>
+        <v>41.89</v>
       </c>
       <c r="F133" t="n">
-        <v>11299.2601</v>
+        <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>41.93349999999995</v>
+        <v>41.92716666666661</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5087,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>41.8</v>
+        <v>41.79</v>
       </c>
       <c r="C134" t="n">
-        <v>41.8</v>
+        <v>41.79</v>
       </c>
       <c r="D134" t="n">
-        <v>41.8</v>
+        <v>41.79</v>
       </c>
       <c r="E134" t="n">
-        <v>41.8</v>
+        <v>41.79</v>
       </c>
       <c r="F134" t="n">
-        <v>16268.3076</v>
+        <v>11299.2601</v>
       </c>
       <c r="G134" t="n">
-        <v>41.93983333333328</v>
+        <v>41.93349999999995</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5125,19 @@
         <v>41.8</v>
       </c>
       <c r="C135" t="n">
-        <v>41.79</v>
+        <v>41.8</v>
       </c>
       <c r="D135" t="n">
         <v>41.8</v>
       </c>
       <c r="E135" t="n">
-        <v>41.79</v>
+        <v>41.8</v>
       </c>
       <c r="F135" t="n">
-        <v>6855.0597</v>
+        <v>16268.3076</v>
       </c>
       <c r="G135" t="n">
-        <v>41.94583333333328</v>
+        <v>41.93983333333328</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,7 +5157,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>41.79</v>
+        <v>41.8</v>
       </c>
       <c r="C136" t="n">
         <v>41.79</v>
@@ -5135,10 +5169,10 @@
         <v>41.79</v>
       </c>
       <c r="F136" t="n">
-        <v>14043.1411</v>
+        <v>6855.0597</v>
       </c>
       <c r="G136" t="n">
-        <v>41.95066666666661</v>
+        <v>41.94583333333328</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5164,16 +5198,16 @@
         <v>41.79</v>
       </c>
       <c r="D137" t="n">
-        <v>41.79</v>
+        <v>41.8</v>
       </c>
       <c r="E137" t="n">
         <v>41.79</v>
       </c>
       <c r="F137" t="n">
-        <v>4590.0765</v>
+        <v>14043.1411</v>
       </c>
       <c r="G137" t="n">
-        <v>41.95383333333328</v>
+        <v>41.95066666666661</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5239,10 @@
         <v>41.79</v>
       </c>
       <c r="F138" t="n">
-        <v>4635.4372</v>
+        <v>4590.0765</v>
       </c>
       <c r="G138" t="n">
-        <v>41.95699999999995</v>
+        <v>41.95383333333328</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5274,10 @@
         <v>41.79</v>
       </c>
       <c r="F139" t="n">
-        <v>3269.4257</v>
+        <v>4635.4372</v>
       </c>
       <c r="G139" t="n">
-        <v>41.96299999999995</v>
+        <v>41.95699999999995</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5300,19 @@
         <v>41.79</v>
       </c>
       <c r="C140" t="n">
-        <v>41.85</v>
+        <v>41.79</v>
       </c>
       <c r="D140" t="n">
-        <v>41.86</v>
+        <v>41.79</v>
       </c>
       <c r="E140" t="n">
         <v>41.79</v>
       </c>
       <c r="F140" t="n">
-        <v>13001.3307</v>
+        <v>3269.4257</v>
       </c>
       <c r="G140" t="n">
-        <v>41.96716666666661</v>
+        <v>41.96299999999995</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5332,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>41.85</v>
+        <v>41.79</v>
       </c>
       <c r="C141" t="n">
         <v>41.85</v>
       </c>
       <c r="D141" t="n">
-        <v>41.85</v>
+        <v>41.86</v>
       </c>
       <c r="E141" t="n">
-        <v>41.85</v>
+        <v>41.79</v>
       </c>
       <c r="F141" t="n">
-        <v>1882.6602</v>
+        <v>13001.3307</v>
       </c>
       <c r="G141" t="n">
-        <v>41.96916666666662</v>
+        <v>41.96716666666661</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,19 +5367,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>41.86</v>
+        <v>41.85</v>
       </c>
       <c r="C142" t="n">
-        <v>41.7</v>
+        <v>41.85</v>
       </c>
       <c r="D142" t="n">
-        <v>41.86</v>
+        <v>41.85</v>
       </c>
       <c r="E142" t="n">
-        <v>41.7</v>
+        <v>41.85</v>
       </c>
       <c r="F142" t="n">
-        <v>2028.59544061</v>
+        <v>1882.6602</v>
       </c>
       <c r="G142" t="n">
         <v>41.96916666666662</v>
@@ -5368,22 +5402,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>41.74</v>
+        <v>41.86</v>
       </c>
       <c r="C143" t="n">
-        <v>41.74</v>
+        <v>41.7</v>
       </c>
       <c r="D143" t="n">
-        <v>41.74</v>
+        <v>41.86</v>
       </c>
       <c r="E143" t="n">
-        <v>41.74</v>
+        <v>41.7</v>
       </c>
       <c r="F143" t="n">
-        <v>1127.8384</v>
+        <v>2028.59544061</v>
       </c>
       <c r="G143" t="n">
-        <v>41.96983333333328</v>
+        <v>41.96916666666662</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5437,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>41.75</v>
+        <v>41.74</v>
       </c>
       <c r="C144" t="n">
-        <v>41.75</v>
+        <v>41.74</v>
       </c>
       <c r="D144" t="n">
-        <v>41.75</v>
+        <v>41.74</v>
       </c>
       <c r="E144" t="n">
-        <v>41.75</v>
+        <v>41.74</v>
       </c>
       <c r="F144" t="n">
-        <v>2264.0591</v>
+        <v>1127.8384</v>
       </c>
       <c r="G144" t="n">
-        <v>41.97033333333329</v>
+        <v>41.96983333333328</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5472,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>41.76</v>
+        <v>41.75</v>
       </c>
       <c r="C145" t="n">
-        <v>41.76</v>
+        <v>41.75</v>
       </c>
       <c r="D145" t="n">
-        <v>41.76</v>
+        <v>41.75</v>
       </c>
       <c r="E145" t="n">
-        <v>41.76</v>
+        <v>41.75</v>
       </c>
       <c r="F145" t="n">
-        <v>400</v>
+        <v>2264.0591</v>
       </c>
       <c r="G145" t="n">
-        <v>41.97049999999995</v>
+        <v>41.97033333333329</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5510,19 @@
         <v>41.76</v>
       </c>
       <c r="C146" t="n">
-        <v>41.75</v>
+        <v>41.76</v>
       </c>
       <c r="D146" t="n">
         <v>41.76</v>
       </c>
       <c r="E146" t="n">
-        <v>41.75</v>
+        <v>41.76</v>
       </c>
       <c r="F146" t="n">
-        <v>18120.855</v>
+        <v>400</v>
       </c>
       <c r="G146" t="n">
-        <v>41.96833333333328</v>
+        <v>41.97049999999995</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5511,19 +5545,19 @@
         <v>41.76</v>
       </c>
       <c r="C147" t="n">
-        <v>41.76</v>
+        <v>41.75</v>
       </c>
       <c r="D147" t="n">
         <v>41.76</v>
       </c>
       <c r="E147" t="n">
-        <v>41.76</v>
+        <v>41.75</v>
       </c>
       <c r="F147" t="n">
-        <v>1062.8582</v>
+        <v>18120.855</v>
       </c>
       <c r="G147" t="n">
-        <v>41.96666666666662</v>
+        <v>41.96833333333328</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5577,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>41.75</v>
+        <v>41.76</v>
       </c>
       <c r="C148" t="n">
-        <v>41.75</v>
+        <v>41.76</v>
       </c>
       <c r="D148" t="n">
-        <v>41.75</v>
+        <v>41.76</v>
       </c>
       <c r="E148" t="n">
-        <v>41.74</v>
+        <v>41.76</v>
       </c>
       <c r="F148" t="n">
-        <v>4278.0235</v>
+        <v>1062.8582</v>
       </c>
       <c r="G148" t="n">
-        <v>41.96216666666662</v>
+        <v>41.96666666666662</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5612,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>41.74</v>
+        <v>41.75</v>
       </c>
       <c r="C149" t="n">
-        <v>41.74</v>
+        <v>41.75</v>
       </c>
       <c r="D149" t="n">
-        <v>41.74</v>
+        <v>41.75</v>
       </c>
       <c r="E149" t="n">
         <v>41.74</v>
       </c>
       <c r="F149" t="n">
-        <v>519.9862000000001</v>
+        <v>4278.0235</v>
       </c>
       <c r="G149" t="n">
-        <v>41.95733333333328</v>
+        <v>41.96216666666662</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5647,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>41.7</v>
+        <v>41.74</v>
       </c>
       <c r="C150" t="n">
-        <v>41.7</v>
+        <v>41.74</v>
       </c>
       <c r="D150" t="n">
-        <v>41.7</v>
+        <v>41.74</v>
       </c>
       <c r="E150" t="n">
-        <v>41.7</v>
+        <v>41.74</v>
       </c>
       <c r="F150" t="n">
-        <v>4.967</v>
+        <v>519.9862000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>41.95083333333328</v>
+        <v>41.95733333333328</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>41.75</v>
+        <v>41.7</v>
       </c>
       <c r="C151" t="n">
-        <v>41.65</v>
+        <v>41.7</v>
       </c>
       <c r="D151" t="n">
-        <v>41.75</v>
+        <v>41.7</v>
       </c>
       <c r="E151" t="n">
-        <v>41.65</v>
+        <v>41.7</v>
       </c>
       <c r="F151" t="n">
-        <v>22000.0969</v>
+        <v>4.967</v>
       </c>
       <c r="G151" t="n">
-        <v>41.94166666666661</v>
+        <v>41.95083333333328</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5717,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>41.77</v>
+        <v>41.75</v>
       </c>
       <c r="C152" t="n">
-        <v>41.77</v>
+        <v>41.65</v>
       </c>
       <c r="D152" t="n">
-        <v>41.77</v>
+        <v>41.75</v>
       </c>
       <c r="E152" t="n">
-        <v>41.77</v>
+        <v>41.65</v>
       </c>
       <c r="F152" t="n">
-        <v>844.0943</v>
+        <v>22000.0969</v>
       </c>
       <c r="G152" t="n">
-        <v>41.93166666666662</v>
+        <v>41.94166666666661</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5752,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>41.79</v>
+        <v>41.77</v>
       </c>
       <c r="C153" t="n">
-        <v>41.79</v>
+        <v>41.77</v>
       </c>
       <c r="D153" t="n">
-        <v>41.79</v>
+        <v>41.77</v>
       </c>
       <c r="E153" t="n">
-        <v>41.79</v>
+        <v>41.77</v>
       </c>
       <c r="F153" t="n">
-        <v>140043.3362</v>
+        <v>844.0943</v>
       </c>
       <c r="G153" t="n">
-        <v>41.92233333333328</v>
+        <v>41.93166666666662</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5787,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>41.92</v>
+        <v>41.79</v>
       </c>
       <c r="C154" t="n">
-        <v>41.92</v>
+        <v>41.79</v>
       </c>
       <c r="D154" t="n">
-        <v>41.92</v>
+        <v>41.79</v>
       </c>
       <c r="E154" t="n">
-        <v>41.92</v>
+        <v>41.79</v>
       </c>
       <c r="F154" t="n">
-        <v>5098.5621</v>
+        <v>140043.3362</v>
       </c>
       <c r="G154" t="n">
-        <v>41.91516666666662</v>
+        <v>41.92233333333328</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5791,19 +5825,19 @@
         <v>41.92</v>
       </c>
       <c r="C155" t="n">
-        <v>41.93</v>
+        <v>41.92</v>
       </c>
       <c r="D155" t="n">
-        <v>41.93</v>
+        <v>41.92</v>
       </c>
       <c r="E155" t="n">
         <v>41.92</v>
       </c>
       <c r="F155" t="n">
-        <v>11408.6546</v>
+        <v>5098.5621</v>
       </c>
       <c r="G155" t="n">
-        <v>41.90816666666662</v>
+        <v>41.91516666666662</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5857,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>41.91</v>
+        <v>41.92</v>
       </c>
       <c r="C156" t="n">
-        <v>41.81</v>
+        <v>41.93</v>
       </c>
       <c r="D156" t="n">
-        <v>41.91</v>
+        <v>41.93</v>
       </c>
       <c r="E156" t="n">
-        <v>41.81</v>
+        <v>41.92</v>
       </c>
       <c r="F156" t="n">
-        <v>9720</v>
+        <v>11408.6546</v>
       </c>
       <c r="G156" t="n">
-        <v>41.90266666666662</v>
+        <v>41.90816666666662</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5892,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="C157" t="n">
         <v>41.81</v>
-      </c>
-      <c r="C157" t="n">
-        <v>41.91</v>
       </c>
       <c r="D157" t="n">
         <v>41.91</v>
       </c>
       <c r="E157" t="n">
-        <v>41.78</v>
+        <v>41.81</v>
       </c>
       <c r="F157" t="n">
-        <v>6959.1513</v>
+        <v>9720</v>
       </c>
       <c r="G157" t="n">
-        <v>41.89566666666662</v>
+        <v>41.90266666666662</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,7 +5927,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>41.91</v>
+        <v>41.81</v>
       </c>
       <c r="C158" t="n">
         <v>41.91</v>
@@ -5902,13 +5936,13 @@
         <v>41.91</v>
       </c>
       <c r="E158" t="n">
-        <v>41.91</v>
+        <v>41.78</v>
       </c>
       <c r="F158" t="n">
-        <v>50</v>
+        <v>6959.1513</v>
       </c>
       <c r="G158" t="n">
-        <v>41.88866666666662</v>
+        <v>41.89566666666662</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5962,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>41.7</v>
+        <v>41.91</v>
       </c>
       <c r="C159" t="n">
-        <v>41.7</v>
+        <v>41.91</v>
       </c>
       <c r="D159" t="n">
-        <v>41.7</v>
+        <v>41.91</v>
       </c>
       <c r="E159" t="n">
-        <v>41.7</v>
+        <v>41.91</v>
       </c>
       <c r="F159" t="n">
-        <v>453.9175</v>
+        <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>41.87816666666662</v>
+        <v>41.88866666666662</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5997,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="C160" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="D160" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="E160" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="F160" t="n">
-        <v>93.79389999999999</v>
+        <v>453.9175</v>
       </c>
       <c r="G160" t="n">
-        <v>41.86983333333328</v>
+        <v>41.87816666666662</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6032,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>41.64</v>
+        <v>41.8</v>
       </c>
       <c r="C161" t="n">
-        <v>41.64</v>
+        <v>41.8</v>
       </c>
       <c r="D161" t="n">
-        <v>41.64</v>
+        <v>41.8</v>
       </c>
       <c r="E161" t="n">
-        <v>41.64</v>
+        <v>41.8</v>
       </c>
       <c r="F161" t="n">
-        <v>10777.7274</v>
+        <v>93.79389999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>41.86266666666661</v>
+        <v>41.86983333333328</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6067,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>41.69</v>
+        <v>41.64</v>
       </c>
       <c r="C162" t="n">
-        <v>41.69</v>
+        <v>41.64</v>
       </c>
       <c r="D162" t="n">
-        <v>41.69</v>
+        <v>41.64</v>
       </c>
       <c r="E162" t="n">
-        <v>41.69</v>
+        <v>41.64</v>
       </c>
       <c r="F162" t="n">
-        <v>7145.152</v>
+        <v>10777.7274</v>
       </c>
       <c r="G162" t="n">
-        <v>41.85633333333327</v>
+        <v>41.86266666666661</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6102,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="C163" t="n">
-        <v>41.64</v>
+        <v>41.69</v>
       </c>
       <c r="D163" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="E163" t="n">
-        <v>41.64</v>
+        <v>41.69</v>
       </c>
       <c r="F163" t="n">
-        <v>2396.3796</v>
+        <v>7145.152</v>
       </c>
       <c r="G163" t="n">
-        <v>41.8491666666666</v>
+        <v>41.85633333333327</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6140,19 @@
         <v>41.8</v>
       </c>
       <c r="C164" t="n">
-        <v>41.8</v>
+        <v>41.64</v>
       </c>
       <c r="D164" t="n">
         <v>41.8</v>
       </c>
       <c r="E164" t="n">
-        <v>41.8</v>
+        <v>41.64</v>
       </c>
       <c r="F164" t="n">
-        <v>28.1966</v>
+        <v>2396.3796</v>
       </c>
       <c r="G164" t="n">
-        <v>41.84549999999994</v>
+        <v>41.8491666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6184,10 @@
         <v>41.8</v>
       </c>
       <c r="F165" t="n">
-        <v>12660.3582</v>
+        <v>28.1966</v>
       </c>
       <c r="G165" t="n">
-        <v>41.84233333333328</v>
+        <v>41.84549999999994</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6207,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="C166" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="D166" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="E166" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="F166" t="n">
-        <v>95822.2099</v>
+        <v>12660.3582</v>
       </c>
       <c r="G166" t="n">
-        <v>41.83699999999995</v>
+        <v>41.84233333333328</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6211,19 +6245,19 @@
         <v>41.7</v>
       </c>
       <c r="C167" t="n">
-        <v>41.87</v>
+        <v>41.7</v>
       </c>
       <c r="D167" t="n">
-        <v>41.87</v>
+        <v>41.7</v>
       </c>
       <c r="E167" t="n">
         <v>41.7</v>
       </c>
       <c r="F167" t="n">
-        <v>77726.5434</v>
+        <v>95822.2099</v>
       </c>
       <c r="G167" t="n">
-        <v>41.83766666666661</v>
+        <v>41.83699999999995</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6277,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>41.82</v>
+        <v>41.7</v>
       </c>
       <c r="C168" t="n">
-        <v>41.82</v>
+        <v>41.87</v>
       </c>
       <c r="D168" t="n">
-        <v>41.82</v>
+        <v>41.87</v>
       </c>
       <c r="E168" t="n">
-        <v>41.82</v>
+        <v>41.7</v>
       </c>
       <c r="F168" t="n">
-        <v>2195.3897</v>
+        <v>77726.5434</v>
       </c>
       <c r="G168" t="n">
-        <v>41.83866666666661</v>
+        <v>41.83766666666661</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,19 +6312,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>41.64</v>
+        <v>41.82</v>
       </c>
       <c r="C169" t="n">
-        <v>41.64</v>
+        <v>41.82</v>
       </c>
       <c r="D169" t="n">
-        <v>41.64</v>
+        <v>41.82</v>
       </c>
       <c r="E169" t="n">
-        <v>41.64</v>
+        <v>41.82</v>
       </c>
       <c r="F169" t="n">
-        <v>349.9406</v>
+        <v>2195.3897</v>
       </c>
       <c r="G169" t="n">
         <v>41.83866666666661</v>
@@ -6325,10 +6359,10 @@
         <v>41.64</v>
       </c>
       <c r="F170" t="n">
-        <v>70.2824</v>
+        <v>349.9406</v>
       </c>
       <c r="G170" t="n">
-        <v>41.83749999999994</v>
+        <v>41.83866666666661</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6382,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>41.57</v>
+        <v>41.64</v>
       </c>
       <c r="C171" t="n">
-        <v>41.7</v>
+        <v>41.64</v>
       </c>
       <c r="D171" t="n">
-        <v>41.7</v>
+        <v>41.64</v>
       </c>
       <c r="E171" t="n">
-        <v>41.52</v>
+        <v>41.64</v>
       </c>
       <c r="F171" t="n">
-        <v>2878.7705</v>
+        <v>70.2824</v>
       </c>
       <c r="G171" t="n">
-        <v>41.83733333333327</v>
+        <v>41.83749999999994</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6417,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>41.71</v>
+        <v>41.57</v>
       </c>
       <c r="C172" t="n">
-        <v>41.66</v>
+        <v>41.7</v>
       </c>
       <c r="D172" t="n">
-        <v>41.76</v>
+        <v>41.7</v>
       </c>
       <c r="E172" t="n">
-        <v>41.66</v>
+        <v>41.52</v>
       </c>
       <c r="F172" t="n">
-        <v>231.1079</v>
+        <v>2878.7705</v>
       </c>
       <c r="G172" t="n">
-        <v>41.83649999999993</v>
+        <v>41.83733333333327</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6452,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>41.6</v>
+        <v>41.71</v>
       </c>
       <c r="C173" t="n">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="D173" t="n">
-        <v>41.6</v>
+        <v>41.76</v>
       </c>
       <c r="E173" t="n">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="F173" t="n">
-        <v>221.3891</v>
+        <v>231.1079</v>
       </c>
       <c r="G173" t="n">
-        <v>41.83149999999993</v>
+        <v>41.83649999999993</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6487,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>41.66</v>
+        <v>41.6</v>
       </c>
       <c r="C174" t="n">
         <v>41.6</v>
       </c>
       <c r="D174" t="n">
-        <v>41.66</v>
+        <v>41.6</v>
       </c>
       <c r="E174" t="n">
         <v>41.6</v>
       </c>
       <c r="F174" t="n">
-        <v>5065.8787</v>
+        <v>221.3891</v>
       </c>
       <c r="G174" t="n">
-        <v>41.82483333333326</v>
+        <v>41.83149999999993</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6522,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="C175" t="n">
         <v>41.6</v>
       </c>
       <c r="D175" t="n">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="E175" t="n">
         <v>41.6</v>
       </c>
       <c r="F175" t="n">
-        <v>4255.7799</v>
+        <v>5065.8787</v>
       </c>
       <c r="G175" t="n">
-        <v>41.81816666666659</v>
+        <v>41.82483333333326</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6557,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="C176" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="D176" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="E176" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="F176" t="n">
-        <v>190.6067</v>
+        <v>4255.7799</v>
       </c>
       <c r="G176" t="n">
-        <v>41.81399999999993</v>
+        <v>41.81816666666659</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6592,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>41.68</v>
+        <v>41.7</v>
       </c>
       <c r="C177" t="n">
-        <v>41.68</v>
+        <v>41.7</v>
       </c>
       <c r="D177" t="n">
-        <v>41.68</v>
+        <v>41.7</v>
       </c>
       <c r="E177" t="n">
-        <v>41.68</v>
+        <v>41.7</v>
       </c>
       <c r="F177" t="n">
-        <v>2827.4017</v>
+        <v>190.6067</v>
       </c>
       <c r="G177" t="n">
-        <v>41.80949999999993</v>
+        <v>41.81399999999993</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6627,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>41.69</v>
+        <v>41.68</v>
       </c>
       <c r="C178" t="n">
-        <v>41.69</v>
+        <v>41.68</v>
       </c>
       <c r="D178" t="n">
-        <v>41.79</v>
+        <v>41.68</v>
       </c>
       <c r="E178" t="n">
-        <v>41.69</v>
+        <v>41.68</v>
       </c>
       <c r="F178" t="n">
-        <v>5590.92717422</v>
+        <v>2827.4017</v>
       </c>
       <c r="G178" t="n">
-        <v>41.8051666666666</v>
+        <v>41.80949999999993</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6662,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>41.7</v>
+        <v>41.69</v>
       </c>
       <c r="C179" t="n">
-        <v>41.7</v>
+        <v>41.69</v>
       </c>
       <c r="D179" t="n">
-        <v>41.7</v>
+        <v>41.79</v>
       </c>
       <c r="E179" t="n">
-        <v>41.7</v>
+        <v>41.69</v>
       </c>
       <c r="F179" t="n">
-        <v>2399.6458</v>
+        <v>5590.92717422</v>
       </c>
       <c r="G179" t="n">
-        <v>41.80099999999993</v>
+        <v>41.8051666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6697,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>41.69</v>
+        <v>41.7</v>
       </c>
       <c r="C180" t="n">
-        <v>41.61</v>
+        <v>41.7</v>
       </c>
       <c r="D180" t="n">
-        <v>41.69</v>
+        <v>41.7</v>
       </c>
       <c r="E180" t="n">
-        <v>41.61</v>
+        <v>41.7</v>
       </c>
       <c r="F180" t="n">
-        <v>5000</v>
+        <v>2399.6458</v>
       </c>
       <c r="G180" t="n">
-        <v>41.79533333333327</v>
+        <v>41.80099999999993</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6732,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>41.6</v>
+        <v>41.69</v>
       </c>
       <c r="C181" t="n">
-        <v>41.6</v>
+        <v>41.61</v>
       </c>
       <c r="D181" t="n">
-        <v>41.6</v>
+        <v>41.69</v>
       </c>
       <c r="E181" t="n">
-        <v>41.6</v>
+        <v>41.61</v>
       </c>
       <c r="F181" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G181" t="n">
-        <v>41.79049999999994</v>
+        <v>41.79533333333327</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6767,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>41.63</v>
+        <v>41.6</v>
       </c>
       <c r="C182" t="n">
-        <v>41.63</v>
+        <v>41.6</v>
       </c>
       <c r="D182" t="n">
-        <v>41.63</v>
+        <v>41.6</v>
       </c>
       <c r="E182" t="n">
-        <v>41.63</v>
+        <v>41.6</v>
       </c>
       <c r="F182" t="n">
-        <v>976.8163</v>
+        <v>1000</v>
       </c>
       <c r="G182" t="n">
-        <v>41.7846666666666</v>
+        <v>41.79049999999994</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6814,10 @@
         <v>41.63</v>
       </c>
       <c r="F183" t="n">
-        <v>173.1837</v>
+        <v>976.8163</v>
       </c>
       <c r="G183" t="n">
-        <v>41.77849999999994</v>
+        <v>41.7846666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6849,10 @@
         <v>41.63</v>
       </c>
       <c r="F184" t="n">
-        <v>8571.321599999999</v>
+        <v>173.1837</v>
       </c>
       <c r="G184" t="n">
-        <v>41.77199999999994</v>
+        <v>41.77849999999994</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6872,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>41.66</v>
+        <v>41.63</v>
       </c>
       <c r="C185" t="n">
-        <v>41.66</v>
+        <v>41.63</v>
       </c>
       <c r="D185" t="n">
-        <v>41.66</v>
+        <v>41.63</v>
       </c>
       <c r="E185" t="n">
-        <v>41.66</v>
+        <v>41.63</v>
       </c>
       <c r="F185" t="n">
-        <v>805.4563000000001</v>
+        <v>8571.321599999999</v>
       </c>
       <c r="G185" t="n">
-        <v>41.76533333333327</v>
+        <v>41.77199999999994</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6907,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>41.81</v>
+        <v>41.66</v>
       </c>
       <c r="C186" t="n">
-        <v>41.81</v>
+        <v>41.66</v>
       </c>
       <c r="D186" t="n">
-        <v>41.81</v>
+        <v>41.66</v>
       </c>
       <c r="E186" t="n">
-        <v>41.81</v>
+        <v>41.66</v>
       </c>
       <c r="F186" t="n">
-        <v>35.87658454</v>
+        <v>805.4563000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>41.76033333333327</v>
+        <v>41.76533333333327</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6942,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>41.66</v>
+        <v>41.81</v>
       </c>
       <c r="C187" t="n">
-        <v>41.66</v>
+        <v>41.81</v>
       </c>
       <c r="D187" t="n">
-        <v>41.66</v>
+        <v>41.81</v>
       </c>
       <c r="E187" t="n">
-        <v>41.66</v>
+        <v>41.81</v>
       </c>
       <c r="F187" t="n">
-        <v>1000</v>
+        <v>35.87658454</v>
       </c>
       <c r="G187" t="n">
-        <v>41.7511666666666</v>
+        <v>41.76033333333327</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6977,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>41.7</v>
+        <v>41.66</v>
       </c>
       <c r="C188" t="n">
-        <v>41.7</v>
+        <v>41.66</v>
       </c>
       <c r="D188" t="n">
-        <v>41.7</v>
+        <v>41.66</v>
       </c>
       <c r="E188" t="n">
-        <v>41.7</v>
+        <v>41.66</v>
       </c>
       <c r="F188" t="n">
-        <v>210.6992</v>
+        <v>1000</v>
       </c>
       <c r="G188" t="n">
-        <v>41.74433333333327</v>
+        <v>41.7511666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7012,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>41.77</v>
+        <v>41.7</v>
       </c>
       <c r="C189" t="n">
-        <v>41.77</v>
+        <v>41.7</v>
       </c>
       <c r="D189" t="n">
-        <v>41.77</v>
+        <v>41.7</v>
       </c>
       <c r="E189" t="n">
-        <v>41.77</v>
+        <v>41.7</v>
       </c>
       <c r="F189" t="n">
-        <v>12</v>
+        <v>210.6992</v>
       </c>
       <c r="G189" t="n">
-        <v>41.74216666666659</v>
+        <v>41.74433333333327</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7047,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>41.8</v>
+        <v>41.77</v>
       </c>
       <c r="C190" t="n">
-        <v>41.8</v>
+        <v>41.77</v>
       </c>
       <c r="D190" t="n">
-        <v>41.8</v>
+        <v>41.77</v>
       </c>
       <c r="E190" t="n">
-        <v>41.8</v>
+        <v>41.77</v>
       </c>
       <c r="F190" t="n">
         <v>12</v>
       </c>
       <c r="G190" t="n">
-        <v>41.74049999999993</v>
+        <v>41.74216666666659</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7094,10 @@
         <v>41.8</v>
       </c>
       <c r="F191" t="n">
-        <v>5198.6992</v>
+        <v>12</v>
       </c>
       <c r="G191" t="n">
-        <v>41.7406666666666</v>
+        <v>41.74049999999993</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7117,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>41.83</v>
+        <v>41.8</v>
       </c>
       <c r="C192" t="n">
-        <v>41.83</v>
+        <v>41.8</v>
       </c>
       <c r="D192" t="n">
-        <v>41.83</v>
+        <v>41.8</v>
       </c>
       <c r="E192" t="n">
-        <v>41.83</v>
+        <v>41.8</v>
       </c>
       <c r="F192" t="n">
-        <v>15800.4054</v>
+        <v>5198.6992</v>
       </c>
       <c r="G192" t="n">
-        <v>41.7396666666666</v>
+        <v>41.7406666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7164,10 @@
         <v>41.83</v>
       </c>
       <c r="F193" t="n">
-        <v>6668.2451</v>
+        <v>15800.4054</v>
       </c>
       <c r="G193" t="n">
-        <v>41.74033333333327</v>
+        <v>41.7396666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7199,10 @@
         <v>41.83</v>
       </c>
       <c r="F194" t="n">
-        <v>25550.0733</v>
+        <v>6668.2451</v>
       </c>
       <c r="G194" t="n">
-        <v>41.74083333333326</v>
+        <v>41.74033333333327</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7222,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>41.91</v>
+        <v>41.83</v>
       </c>
       <c r="C195" t="n">
-        <v>41.93</v>
+        <v>41.83</v>
       </c>
       <c r="D195" t="n">
-        <v>41.93</v>
+        <v>41.83</v>
       </c>
       <c r="E195" t="n">
-        <v>41.91</v>
+        <v>41.83</v>
       </c>
       <c r="F195" t="n">
-        <v>81697.98179999999</v>
+        <v>25550.0733</v>
       </c>
       <c r="G195" t="n">
-        <v>41.7431666666666</v>
+        <v>41.74083333333326</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,7 +7257,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>41.93</v>
+        <v>41.91</v>
       </c>
       <c r="C196" t="n">
         <v>41.93</v>
@@ -7232,13 +7266,13 @@
         <v>41.93</v>
       </c>
       <c r="E196" t="n">
-        <v>41.93</v>
+        <v>41.91</v>
       </c>
       <c r="F196" t="n">
-        <v>5000</v>
+        <v>81697.98179999999</v>
       </c>
       <c r="G196" t="n">
-        <v>41.74549999999992</v>
+        <v>41.7431666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7304,10 @@
         <v>41.93</v>
       </c>
       <c r="F197" t="n">
-        <v>1088.9927</v>
+        <v>5000</v>
       </c>
       <c r="G197" t="n">
-        <v>41.74783333333325</v>
+        <v>41.74549999999992</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7296,19 +7330,19 @@
         <v>41.93</v>
       </c>
       <c r="C198" t="n">
-        <v>41.96</v>
+        <v>41.93</v>
       </c>
       <c r="D198" t="n">
-        <v>41.96</v>
+        <v>41.93</v>
       </c>
       <c r="E198" t="n">
         <v>41.93</v>
       </c>
       <c r="F198" t="n">
-        <v>6566.4748</v>
+        <v>1088.9927</v>
       </c>
       <c r="G198" t="n">
-        <v>41.75066666666659</v>
+        <v>41.74783333333325</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7362,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>41.96</v>
+        <v>41.93</v>
       </c>
       <c r="C199" t="n">
         <v>41.96</v>
@@ -7337,13 +7371,13 @@
         <v>41.96</v>
       </c>
       <c r="E199" t="n">
-        <v>41.96</v>
+        <v>41.93</v>
       </c>
       <c r="F199" t="n">
-        <v>1060.1357</v>
+        <v>6566.4748</v>
       </c>
       <c r="G199" t="n">
-        <v>41.75349999999992</v>
+        <v>41.75066666666659</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7409,10 @@
         <v>41.96</v>
       </c>
       <c r="F200" t="n">
-        <v>32754.7488</v>
+        <v>1060.1357</v>
       </c>
       <c r="G200" t="n">
-        <v>41.75533333333326</v>
+        <v>41.75349999999992</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7432,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>41.97</v>
+        <v>41.96</v>
       </c>
       <c r="C201" t="n">
         <v>41.96</v>
       </c>
       <c r="D201" t="n">
-        <v>41.97</v>
+        <v>41.96</v>
       </c>
       <c r="E201" t="n">
         <v>41.96</v>
       </c>
       <c r="F201" t="n">
-        <v>10149.0681</v>
+        <v>32754.7488</v>
       </c>
       <c r="G201" t="n">
-        <v>41.7571666666666</v>
+        <v>41.75533333333326</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7467,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>41.96</v>
+        <v>41.97</v>
       </c>
       <c r="C202" t="n">
         <v>41.96</v>
       </c>
       <c r="D202" t="n">
-        <v>41.96</v>
+        <v>41.97</v>
       </c>
       <c r="E202" t="n">
         <v>41.96</v>
       </c>
       <c r="F202" t="n">
-        <v>25798.3851</v>
+        <v>10149.0681</v>
       </c>
       <c r="G202" t="n">
-        <v>41.76149999999993</v>
+        <v>41.7571666666666</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7514,10 @@
         <v>41.96</v>
       </c>
       <c r="F203" t="n">
-        <v>20753.7259</v>
+        <v>25798.3851</v>
       </c>
       <c r="G203" t="n">
-        <v>41.7651666666666</v>
+        <v>41.76149999999993</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7537,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>41.83</v>
+        <v>41.96</v>
       </c>
       <c r="C204" t="n">
-        <v>41.93</v>
+        <v>41.96</v>
       </c>
       <c r="D204" t="n">
-        <v>41.93</v>
+        <v>41.96</v>
       </c>
       <c r="E204" t="n">
-        <v>41.7</v>
+        <v>41.96</v>
       </c>
       <c r="F204" t="n">
-        <v>964.2806</v>
+        <v>20753.7259</v>
       </c>
       <c r="G204" t="n">
-        <v>41.7681666666666</v>
+        <v>41.7651666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7572,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>42</v>
+        <v>41.83</v>
       </c>
       <c r="C205" t="n">
-        <v>42</v>
+        <v>41.93</v>
       </c>
       <c r="D205" t="n">
-        <v>42</v>
+        <v>41.93</v>
       </c>
       <c r="E205" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="F205" t="n">
-        <v>31.2615</v>
+        <v>964.2806</v>
       </c>
       <c r="G205" t="n">
-        <v>41.7721666666666</v>
+        <v>41.7681666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7619,10 @@
         <v>42</v>
       </c>
       <c r="F206" t="n">
-        <v>53.5703</v>
+        <v>31.2615</v>
       </c>
       <c r="G206" t="n">
-        <v>41.77633333333326</v>
+        <v>41.7721666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7642,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="C207" t="n">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="D207" t="n">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="E207" t="n">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="F207" t="n">
-        <v>32024.5155</v>
+        <v>53.5703</v>
       </c>
       <c r="G207" t="n">
-        <v>41.77849999999992</v>
+        <v>41.77633333333326</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7689,10 @@
         <v>41.89</v>
       </c>
       <c r="F208" t="n">
-        <v>42963.6164</v>
+        <v>32024.5155</v>
       </c>
       <c r="G208" t="n">
-        <v>41.78083333333326</v>
+        <v>41.77849999999992</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7712,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>41.7</v>
+        <v>41.89</v>
       </c>
       <c r="C209" t="n">
-        <v>41.7</v>
+        <v>41.89</v>
       </c>
       <c r="D209" t="n">
-        <v>41.7</v>
+        <v>41.89</v>
       </c>
       <c r="E209" t="n">
-        <v>41.7</v>
+        <v>41.89</v>
       </c>
       <c r="F209" t="n">
-        <v>38.2147</v>
+        <v>42963.6164</v>
       </c>
       <c r="G209" t="n">
-        <v>41.78016666666659</v>
+        <v>41.78083333333326</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,19 +7747,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>41.93</v>
+        <v>41.7</v>
       </c>
       <c r="C210" t="n">
         <v>41.7</v>
       </c>
       <c r="D210" t="n">
-        <v>41.93</v>
+        <v>41.7</v>
       </c>
       <c r="E210" t="n">
         <v>41.7</v>
       </c>
       <c r="F210" t="n">
-        <v>433.3194</v>
+        <v>38.2147</v>
       </c>
       <c r="G210" t="n">
         <v>41.78016666666659</v>
@@ -7748,22 +7782,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>41.9</v>
+        <v>41.93</v>
       </c>
       <c r="C211" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="D211" t="n">
-        <v>41.9</v>
+        <v>41.93</v>
       </c>
       <c r="E211" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="F211" t="n">
-        <v>60.6581</v>
+        <v>433.3194</v>
       </c>
       <c r="G211" t="n">
-        <v>41.78433333333326</v>
+        <v>41.78016666666659</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7817,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="C212" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="D212" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="E212" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="F212" t="n">
-        <v>974.7723</v>
+        <v>60.6581</v>
       </c>
       <c r="G212" t="n">
-        <v>41.78266666666659</v>
+        <v>41.78433333333326</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7852,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="C213" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="D213" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="E213" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="F213" t="n">
-        <v>1873.2894</v>
+        <v>974.7723</v>
       </c>
       <c r="G213" t="n">
-        <v>41.78049999999993</v>
+        <v>41.78266666666659</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7887,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="C214" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="D214" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="E214" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="F214" t="n">
-        <v>2444.4824</v>
+        <v>1873.2894</v>
       </c>
       <c r="G214" t="n">
-        <v>41.77633333333326</v>
+        <v>41.78049999999993</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7922,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>41.8</v>
+        <v>41.67</v>
       </c>
       <c r="C215" t="n">
-        <v>41.8</v>
+        <v>41.67</v>
       </c>
       <c r="D215" t="n">
-        <v>41.8</v>
+        <v>41.67</v>
       </c>
       <c r="E215" t="n">
-        <v>41.8</v>
+        <v>41.67</v>
       </c>
       <c r="F215" t="n">
-        <v>18.5541</v>
+        <v>2444.4824</v>
       </c>
       <c r="G215" t="n">
-        <v>41.77416666666659</v>
+        <v>41.77633333333326</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7957,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="C216" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="D216" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="E216" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="F216" t="n">
-        <v>71.60169999999999</v>
+        <v>18.5541</v>
       </c>
       <c r="G216" t="n">
-        <v>41.7736666666666</v>
+        <v>41.77416666666659</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +8004,10 @@
         <v>41.78</v>
       </c>
       <c r="F217" t="n">
-        <v>2467.9999</v>
+        <v>71.60169999999999</v>
       </c>
       <c r="G217" t="n">
-        <v>41.77149999999994</v>
+        <v>41.7736666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8027,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="C218" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="D218" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="E218" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="F218" t="n">
-        <v>12</v>
+        <v>2467.9999</v>
       </c>
       <c r="G218" t="n">
-        <v>41.76966666666661</v>
+        <v>41.77149999999994</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8062,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="C219" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="D219" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="E219" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="F219" t="n">
-        <v>4023.6701</v>
+        <v>12</v>
       </c>
       <c r="G219" t="n">
-        <v>41.77099999999995</v>
+        <v>41.76966666666661</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,19 +8097,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="C220" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="D220" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="E220" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="F220" t="n">
-        <v>3021.7578</v>
+        <v>4023.6701</v>
       </c>
       <c r="G220" t="n">
         <v>41.77099999999995</v>
@@ -8110,10 +8144,10 @@
         <v>41.8</v>
       </c>
       <c r="F221" t="n">
-        <v>1551.4654</v>
+        <v>3021.7578</v>
       </c>
       <c r="G221" t="n">
-        <v>41.77366666666662</v>
+        <v>41.77099999999995</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8167,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="C222" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="D222" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="E222" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="F222" t="n">
-        <v>309.7722</v>
+        <v>1551.4654</v>
       </c>
       <c r="G222" t="n">
-        <v>41.77516666666663</v>
+        <v>41.77366666666662</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8202,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="C223" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="D223" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="E223" t="n">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="F223" t="n">
-        <v>844.9785000000001</v>
+        <v>309.7722</v>
       </c>
       <c r="G223" t="n">
-        <v>41.7778333333333</v>
+        <v>41.77516666666663</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8206,19 +8240,19 @@
         <v>41.8</v>
       </c>
       <c r="C224" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="D224" t="n">
         <v>41.8</v>
       </c>
       <c r="E224" t="n">
-        <v>41.78</v>
+        <v>41.8</v>
       </c>
       <c r="F224" t="n">
-        <v>5025.8515</v>
+        <v>844.9785000000001</v>
       </c>
       <c r="G224" t="n">
-        <v>41.77749999999996</v>
+        <v>41.7778333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8272,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>41.83</v>
+        <v>41.8</v>
       </c>
       <c r="C225" t="n">
-        <v>41.75</v>
+        <v>41.78</v>
       </c>
       <c r="D225" t="n">
-        <v>41.92</v>
+        <v>41.8</v>
       </c>
       <c r="E225" t="n">
-        <v>41.75</v>
+        <v>41.78</v>
       </c>
       <c r="F225" t="n">
-        <v>151200</v>
+        <v>5025.8515</v>
       </c>
       <c r="G225" t="n">
-        <v>41.77666666666663</v>
+        <v>41.77749999999996</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8307,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>41.79</v>
+        <v>41.83</v>
       </c>
       <c r="C226" t="n">
-        <v>41.79</v>
+        <v>41.75</v>
       </c>
       <c r="D226" t="n">
-        <v>41.79</v>
+        <v>41.92</v>
       </c>
       <c r="E226" t="n">
-        <v>41.79</v>
+        <v>41.75</v>
       </c>
       <c r="F226" t="n">
-        <v>626.328</v>
+        <v>151200</v>
       </c>
       <c r="G226" t="n">
-        <v>41.77816666666663</v>
+        <v>41.77666666666663</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8342,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>41.67</v>
+        <v>41.79</v>
       </c>
       <c r="C227" t="n">
-        <v>41.66</v>
+        <v>41.79</v>
       </c>
       <c r="D227" t="n">
-        <v>41.68</v>
+        <v>41.79</v>
       </c>
       <c r="E227" t="n">
-        <v>41.65</v>
+        <v>41.79</v>
       </c>
       <c r="F227" t="n">
-        <v>63966.7517</v>
+        <v>626.328</v>
       </c>
       <c r="G227" t="n">
-        <v>41.77466666666663</v>
+        <v>41.77816666666663</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8377,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>41.72</v>
+        <v>41.67</v>
       </c>
       <c r="C228" t="n">
-        <v>41.72</v>
+        <v>41.66</v>
       </c>
       <c r="D228" t="n">
-        <v>41.72</v>
+        <v>41.68</v>
       </c>
       <c r="E228" t="n">
-        <v>41.72</v>
+        <v>41.65</v>
       </c>
       <c r="F228" t="n">
-        <v>1560.618</v>
+        <v>63966.7517</v>
       </c>
       <c r="G228" t="n">
-        <v>41.77299999999995</v>
+        <v>41.77466666666663</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8412,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>41.77</v>
+        <v>41.72</v>
       </c>
       <c r="C229" t="n">
-        <v>41.77</v>
+        <v>41.72</v>
       </c>
       <c r="D229" t="n">
-        <v>41.77</v>
+        <v>41.72</v>
       </c>
       <c r="E229" t="n">
-        <v>41.77</v>
+        <v>41.72</v>
       </c>
       <c r="F229" t="n">
-        <v>995.4842</v>
+        <v>1560.618</v>
       </c>
       <c r="G229" t="n">
-        <v>41.77516666666663</v>
+        <v>41.77299999999995</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8447,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>41.78</v>
+        <v>41.77</v>
       </c>
       <c r="C230" t="n">
-        <v>41.78</v>
+        <v>41.77</v>
       </c>
       <c r="D230" t="n">
-        <v>41.78</v>
+        <v>41.77</v>
       </c>
       <c r="E230" t="n">
-        <v>41.78</v>
+        <v>41.77</v>
       </c>
       <c r="F230" t="n">
-        <v>9038.2675</v>
+        <v>995.4842</v>
       </c>
       <c r="G230" t="n">
-        <v>41.77749999999996</v>
+        <v>41.77516666666663</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8460,10 +8494,10 @@
         <v>41.78</v>
       </c>
       <c r="F231" t="n">
-        <v>837.7039</v>
+        <v>9038.2675</v>
       </c>
       <c r="G231" t="n">
-        <v>41.7788333333333</v>
+        <v>41.77749999999996</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8529,10 @@
         <v>41.78</v>
       </c>
       <c r="F232" t="n">
-        <v>521.9848</v>
+        <v>837.7039</v>
       </c>
       <c r="G232" t="n">
-        <v>41.78083333333331</v>
+        <v>41.7788333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8530,10 +8564,10 @@
         <v>41.78</v>
       </c>
       <c r="F233" t="n">
-        <v>22321.1969</v>
+        <v>521.9848</v>
       </c>
       <c r="G233" t="n">
-        <v>41.78383333333331</v>
+        <v>41.78083333333331</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8565,10 +8599,10 @@
         <v>41.78</v>
       </c>
       <c r="F234" t="n">
-        <v>35812.78123504</v>
+        <v>22321.1969</v>
       </c>
       <c r="G234" t="n">
-        <v>41.78683333333332</v>
+        <v>41.78383333333331</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8600,10 +8634,10 @@
         <v>41.78</v>
       </c>
       <c r="F235" t="n">
-        <v>17906.39061752</v>
+        <v>35812.78123504</v>
       </c>
       <c r="G235" t="n">
-        <v>41.78983333333333</v>
+        <v>41.78683333333332</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8635,10 +8669,10 @@
         <v>41.78</v>
       </c>
       <c r="F236" t="n">
-        <v>2207.4448</v>
+        <v>17906.39061752</v>
       </c>
       <c r="G236" t="n">
-        <v>41.79116666666666</v>
+        <v>41.78983333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8670,10 +8704,10 @@
         <v>41.78</v>
       </c>
       <c r="F237" t="n">
-        <v>33376.1065</v>
+        <v>2207.4448</v>
       </c>
       <c r="G237" t="n">
-        <v>41.79283333333333</v>
+        <v>41.79116666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8705,10 +8739,10 @@
         <v>41.78</v>
       </c>
       <c r="F238" t="n">
-        <v>4168.1237</v>
+        <v>33376.1065</v>
       </c>
       <c r="G238" t="n">
-        <v>41.79433333333334</v>
+        <v>41.79283333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8731,19 +8765,19 @@
         <v>41.78</v>
       </c>
       <c r="C239" t="n">
-        <v>41.92</v>
+        <v>41.78</v>
       </c>
       <c r="D239" t="n">
-        <v>41.92</v>
+        <v>41.78</v>
       </c>
       <c r="E239" t="n">
         <v>41.78</v>
       </c>
       <c r="F239" t="n">
-        <v>8931.064546670001</v>
+        <v>4168.1237</v>
       </c>
       <c r="G239" t="n">
-        <v>41.79800000000001</v>
+        <v>41.79433333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8797,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="C240" t="n">
         <v>41.92</v>
-      </c>
-      <c r="C240" t="n">
-        <v>41.82</v>
       </c>
       <c r="D240" t="n">
         <v>41.92</v>
       </c>
       <c r="E240" t="n">
-        <v>41.82</v>
+        <v>41.78</v>
       </c>
       <c r="F240" t="n">
-        <v>37888.5996</v>
+        <v>8931.064546670001</v>
       </c>
       <c r="G240" t="n">
-        <v>41.80150000000001</v>
+        <v>41.79800000000001</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8832,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="C241" t="n">
         <v>41.82</v>
       </c>
-      <c r="C241" t="n">
-        <v>41.98</v>
-      </c>
       <c r="D241" t="n">
-        <v>41.98</v>
+        <v>41.92</v>
       </c>
       <c r="E241" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="F241" t="n">
-        <v>11873.42157346</v>
+        <v>37888.5996</v>
       </c>
       <c r="G241" t="n">
-        <v>41.80783333333334</v>
+        <v>41.80150000000001</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8867,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>41.96</v>
+        <v>41.82</v>
       </c>
       <c r="C242" t="n">
-        <v>41.82</v>
+        <v>41.98</v>
       </c>
       <c r="D242" t="n">
-        <v>41.96</v>
+        <v>41.98</v>
       </c>
       <c r="E242" t="n">
-        <v>41.82</v>
+        <v>41.8</v>
       </c>
       <c r="F242" t="n">
-        <v>3032.8481</v>
+        <v>11873.42157346</v>
       </c>
       <c r="G242" t="n">
-        <v>41.81100000000001</v>
+        <v>41.80783333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8902,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>41.73</v>
+        <v>41.96</v>
       </c>
       <c r="C243" t="n">
-        <v>41.73</v>
+        <v>41.82</v>
       </c>
       <c r="D243" t="n">
-        <v>41.73</v>
+        <v>41.96</v>
       </c>
       <c r="E243" t="n">
-        <v>41.73</v>
+        <v>41.82</v>
       </c>
       <c r="F243" t="n">
-        <v>582.2329999999999</v>
+        <v>3032.8481</v>
       </c>
       <c r="G243" t="n">
-        <v>41.81266666666668</v>
+        <v>41.81100000000001</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8937,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>41.81</v>
+        <v>41.73</v>
       </c>
       <c r="C244" t="n">
-        <v>41.81</v>
+        <v>41.73</v>
       </c>
       <c r="D244" t="n">
-        <v>41.81</v>
+        <v>41.73</v>
       </c>
       <c r="E244" t="n">
-        <v>41.81</v>
+        <v>41.73</v>
       </c>
       <c r="F244" t="n">
-        <v>353.7422</v>
+        <v>582.2329999999999</v>
       </c>
       <c r="G244" t="n">
-        <v>41.81566666666667</v>
+        <v>41.81266666666668</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8950,10 +8984,10 @@
         <v>41.81</v>
       </c>
       <c r="F245" t="n">
-        <v>103837.6908</v>
+        <v>353.7422</v>
       </c>
       <c r="G245" t="n">
-        <v>41.81816666666668</v>
+        <v>41.81566666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8985,7 +9019,7 @@
         <v>41.81</v>
       </c>
       <c r="F246" t="n">
-        <v>31173.5939</v>
+        <v>103837.6908</v>
       </c>
       <c r="G246" t="n">
         <v>41.81816666666668</v>
@@ -9020,10 +9054,10 @@
         <v>41.81</v>
       </c>
       <c r="F247" t="n">
-        <v>102611.6636</v>
+        <v>31173.5939</v>
       </c>
       <c r="G247" t="n">
-        <v>41.82066666666667</v>
+        <v>41.81816666666668</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,19 +9077,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>41.73</v>
+        <v>41.81</v>
       </c>
       <c r="C248" t="n">
-        <v>41.7</v>
+        <v>41.81</v>
       </c>
       <c r="D248" t="n">
-        <v>41.73</v>
+        <v>41.81</v>
       </c>
       <c r="E248" t="n">
-        <v>41.7</v>
+        <v>41.81</v>
       </c>
       <c r="F248" t="n">
-        <v>900</v>
+        <v>102611.6636</v>
       </c>
       <c r="G248" t="n">
         <v>41.82066666666667</v>
@@ -9078,22 +9112,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>41.71</v>
+        <v>41.73</v>
       </c>
       <c r="C249" t="n">
         <v>41.7</v>
       </c>
       <c r="D249" t="n">
-        <v>41.71</v>
+        <v>41.73</v>
       </c>
       <c r="E249" t="n">
         <v>41.7</v>
       </c>
       <c r="F249" t="n">
-        <v>1991.2557</v>
+        <v>900</v>
       </c>
       <c r="G249" t="n">
-        <v>41.81950000000001</v>
+        <v>41.82066666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9147,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>41.69</v>
+        <v>41.71</v>
       </c>
       <c r="C250" t="n">
-        <v>41.69</v>
+        <v>41.7</v>
       </c>
       <c r="D250" t="n">
-        <v>41.69</v>
+        <v>41.71</v>
       </c>
       <c r="E250" t="n">
-        <v>41.69</v>
+        <v>41.7</v>
       </c>
       <c r="F250" t="n">
-        <v>204.134</v>
+        <v>1991.2557</v>
       </c>
       <c r="G250" t="n">
-        <v>41.81766666666667</v>
+        <v>41.81950000000001</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9160,10 +9194,10 @@
         <v>41.69</v>
       </c>
       <c r="F251" t="n">
-        <v>37994.1</v>
+        <v>204.134</v>
       </c>
       <c r="G251" t="n">
-        <v>41.81583333333334</v>
+        <v>41.81766666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,19 +9217,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>41.83</v>
+        <v>41.69</v>
       </c>
       <c r="C252" t="n">
-        <v>41.83</v>
+        <v>41.69</v>
       </c>
       <c r="D252" t="n">
-        <v>41.83</v>
+        <v>41.69</v>
       </c>
       <c r="E252" t="n">
-        <v>41.83</v>
+        <v>41.69</v>
       </c>
       <c r="F252" t="n">
-        <v>1673.44011475</v>
+        <v>37994.1</v>
       </c>
       <c r="G252" t="n">
         <v>41.81583333333334</v>
@@ -9218,22 +9252,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>41.79</v>
+        <v>41.83</v>
       </c>
       <c r="C253" t="n">
-        <v>41.71</v>
+        <v>41.83</v>
       </c>
       <c r="D253" t="n">
-        <v>41.79</v>
+        <v>41.83</v>
       </c>
       <c r="E253" t="n">
-        <v>41.71</v>
+        <v>41.83</v>
       </c>
       <c r="F253" t="n">
-        <v>1337.6147</v>
+        <v>1673.44011475</v>
       </c>
       <c r="G253" t="n">
-        <v>41.81383333333334</v>
+        <v>41.81583333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9287,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>41.69</v>
+        <v>41.79</v>
       </c>
       <c r="C254" t="n">
-        <v>41.69</v>
+        <v>41.71</v>
       </c>
       <c r="D254" t="n">
-        <v>41.69</v>
+        <v>41.79</v>
       </c>
       <c r="E254" t="n">
-        <v>41.69</v>
+        <v>41.71</v>
       </c>
       <c r="F254" t="n">
-        <v>5338.5712</v>
+        <v>1337.6147</v>
       </c>
       <c r="G254" t="n">
-        <v>41.81150000000001</v>
+        <v>41.81383333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9300,10 +9334,10 @@
         <v>41.69</v>
       </c>
       <c r="F255" t="n">
-        <v>39555.1397</v>
+        <v>5338.5712</v>
       </c>
       <c r="G255" t="n">
-        <v>41.80750000000001</v>
+        <v>41.81150000000001</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9357,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>41.61</v>
+        <v>41.69</v>
       </c>
       <c r="C256" t="n">
-        <v>41.61</v>
+        <v>41.69</v>
       </c>
       <c r="D256" t="n">
-        <v>41.61</v>
+        <v>41.69</v>
       </c>
       <c r="E256" t="n">
-        <v>41.61</v>
+        <v>41.69</v>
       </c>
       <c r="F256" t="n">
-        <v>388.0934</v>
+        <v>39555.1397</v>
       </c>
       <c r="G256" t="n">
-        <v>41.80216666666669</v>
+        <v>41.80750000000001</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9392,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>41.73</v>
+        <v>41.61</v>
       </c>
       <c r="C257" t="n">
-        <v>41.73</v>
+        <v>41.61</v>
       </c>
       <c r="D257" t="n">
-        <v>41.73</v>
+        <v>41.61</v>
       </c>
       <c r="E257" t="n">
-        <v>41.73</v>
+        <v>41.61</v>
       </c>
       <c r="F257" t="n">
-        <v>4090</v>
+        <v>388.0934</v>
       </c>
       <c r="G257" t="n">
-        <v>41.79883333333336</v>
+        <v>41.80216666666669</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9427,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>41.61</v>
+        <v>41.73</v>
       </c>
       <c r="C258" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="D258" t="n">
-        <v>41.61</v>
+        <v>41.73</v>
       </c>
       <c r="E258" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="F258" t="n">
-        <v>10000</v>
+        <v>4090</v>
       </c>
       <c r="G258" t="n">
-        <v>41.79283333333335</v>
+        <v>41.79883333333336</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9462,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>41.6</v>
+        <v>41.61</v>
       </c>
       <c r="C259" t="n">
         <v>41.6</v>
       </c>
       <c r="D259" t="n">
-        <v>41.6</v>
+        <v>41.61</v>
       </c>
       <c r="E259" t="n">
         <v>41.6</v>
       </c>
       <c r="F259" t="n">
-        <v>394.0399</v>
+        <v>10000</v>
       </c>
       <c r="G259" t="n">
-        <v>41.78683333333335</v>
+        <v>41.79283333333335</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9497,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>41.52</v>
+        <v>41.6</v>
       </c>
       <c r="C260" t="n">
-        <v>41.42</v>
+        <v>41.6</v>
       </c>
       <c r="D260" t="n">
-        <v>41.52</v>
+        <v>41.6</v>
       </c>
       <c r="E260" t="n">
-        <v>41.42</v>
+        <v>41.6</v>
       </c>
       <c r="F260" t="n">
-        <v>7163.7781</v>
+        <v>394.0399</v>
       </c>
       <c r="G260" t="n">
-        <v>41.77783333333335</v>
+        <v>41.78683333333335</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9532,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>41.46</v>
+        <v>41.52</v>
       </c>
       <c r="C261" t="n">
-        <v>41.56</v>
+        <v>41.42</v>
       </c>
       <c r="D261" t="n">
-        <v>41.56</v>
+        <v>41.52</v>
       </c>
       <c r="E261" t="n">
-        <v>41.46</v>
+        <v>41.42</v>
       </c>
       <c r="F261" t="n">
-        <v>8000</v>
+        <v>7163.7781</v>
       </c>
       <c r="G261" t="n">
-        <v>41.77116666666668</v>
+        <v>41.77783333333335</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9567,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>41.42</v>
+        <v>41.46</v>
       </c>
       <c r="C262" t="n">
-        <v>41.42</v>
+        <v>41.56</v>
       </c>
       <c r="D262" t="n">
-        <v>41.42</v>
+        <v>41.56</v>
       </c>
       <c r="E262" t="n">
-        <v>41.42</v>
+        <v>41.46</v>
       </c>
       <c r="F262" t="n">
-        <v>7823.923</v>
+        <v>8000</v>
       </c>
       <c r="G262" t="n">
-        <v>41.76216666666668</v>
+        <v>41.77116666666668</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9580,10 +9614,10 @@
         <v>41.42</v>
       </c>
       <c r="F263" t="n">
-        <v>39586.4781</v>
+        <v>7823.923</v>
       </c>
       <c r="G263" t="n">
-        <v>41.75316666666668</v>
+        <v>41.76216666666668</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9603,22 +9637,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>41.4</v>
+        <v>41.42</v>
       </c>
       <c r="C264" t="n">
-        <v>41.4</v>
+        <v>41.42</v>
       </c>
       <c r="D264" t="n">
-        <v>41.4</v>
+        <v>41.42</v>
       </c>
       <c r="E264" t="n">
-        <v>41.4</v>
+        <v>41.42</v>
       </c>
       <c r="F264" t="n">
-        <v>2604.7271</v>
+        <v>39586.4781</v>
       </c>
       <c r="G264" t="n">
-        <v>41.74433333333335</v>
+        <v>41.75316666666668</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,22 +9672,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>41.42</v>
+        <v>41.4</v>
       </c>
       <c r="C265" t="n">
-        <v>41.58</v>
+        <v>41.4</v>
       </c>
       <c r="D265" t="n">
-        <v>41.58</v>
+        <v>41.4</v>
       </c>
       <c r="E265" t="n">
-        <v>41.42</v>
+        <v>41.4</v>
       </c>
       <c r="F265" t="n">
-        <v>4485.80606791</v>
+        <v>2604.7271</v>
       </c>
       <c r="G265" t="n">
-        <v>41.73733333333335</v>
+        <v>41.74433333333335</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9707,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="C266" t="n">
-        <v>41.41</v>
+        <v>41.58</v>
       </c>
       <c r="D266" t="n">
-        <v>41.41</v>
+        <v>41.58</v>
       </c>
       <c r="E266" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="F266" t="n">
-        <v>674.4937</v>
+        <v>4485.80606791</v>
       </c>
       <c r="G266" t="n">
-        <v>41.72750000000001</v>
+        <v>41.73733333333335</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9742,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="C267" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="D267" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="E267" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="F267" t="n">
-        <v>7713.2485</v>
+        <v>674.4937</v>
       </c>
       <c r="G267" t="n">
-        <v>41.71966666666669</v>
+        <v>41.72750000000001</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9755,10 +9789,10 @@
         <v>41.42</v>
       </c>
       <c r="F268" t="n">
-        <v>1547.1893</v>
+        <v>7713.2485</v>
       </c>
       <c r="G268" t="n">
-        <v>41.71183333333336</v>
+        <v>41.71966666666669</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9812,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="C269" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="D269" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="E269" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="F269" t="n">
-        <v>6242.9862</v>
+        <v>1547.1893</v>
       </c>
       <c r="G269" t="n">
-        <v>41.70700000000002</v>
+        <v>41.71183333333336</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9825,10 +9859,10 @@
         <v>41.41</v>
       </c>
       <c r="F270" t="n">
-        <v>44386.2539</v>
+        <v>6242.9862</v>
       </c>
       <c r="G270" t="n">
-        <v>41.70216666666669</v>
+        <v>41.70700000000002</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,7 +9882,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>41.36</v>
+        <v>41.41</v>
       </c>
       <c r="C271" t="n">
         <v>41.41</v>
@@ -9857,13 +9891,13 @@
         <v>41.41</v>
       </c>
       <c r="E271" t="n">
-        <v>41.36</v>
+        <v>41.41</v>
       </c>
       <c r="F271" t="n">
-        <v>4631.802</v>
+        <v>44386.2539</v>
       </c>
       <c r="G271" t="n">
-        <v>41.69400000000002</v>
+        <v>41.70216666666669</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +9917,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>41.3</v>
+        <v>41.36</v>
       </c>
       <c r="C272" t="n">
-        <v>41.3</v>
+        <v>41.41</v>
       </c>
       <c r="D272" t="n">
-        <v>41.3</v>
+        <v>41.41</v>
       </c>
       <c r="E272" t="n">
-        <v>41.3</v>
+        <v>41.36</v>
       </c>
       <c r="F272" t="n">
-        <v>17797.1085</v>
+        <v>4631.802</v>
       </c>
       <c r="G272" t="n">
-        <v>41.68783333333336</v>
+        <v>41.69400000000002</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,35 +9952,31 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>41.34</v>
+        <v>41.3</v>
       </c>
       <c r="C273" t="n">
-        <v>41.34</v>
+        <v>41.3</v>
       </c>
       <c r="D273" t="n">
-        <v>41.34</v>
+        <v>41.3</v>
       </c>
       <c r="E273" t="n">
-        <v>41.34</v>
+        <v>41.3</v>
       </c>
       <c r="F273" t="n">
-        <v>760.072</v>
+        <v>17797.1085</v>
       </c>
       <c r="G273" t="n">
-        <v>41.68250000000003</v>
+        <v>41.68783333333336</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K273" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
@@ -9969,28 +9999,20 @@
         <v>41.34</v>
       </c>
       <c r="F274" t="n">
-        <v>3959.2145</v>
+        <v>760.072</v>
       </c>
       <c r="G274" t="n">
-        <v>41.67700000000003</v>
+        <v>41.68250000000003</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K274" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10000,41 +10022,68 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="C275" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="D275" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="E275" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3959.2145</v>
+      </c>
+      <c r="G275" t="n">
+        <v>41.67700000000003</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
         <v>41.36</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C276" t="n">
         <v>41.36</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D276" t="n">
         <v>41.36</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E276" t="n">
         <v>41.36</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F276" t="n">
         <v>760.072</v>
       </c>
-      <c r="G275" t="n">
+      <c r="G276" t="n">
         <v>41.66966666666669</v>
       </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K275" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N344"/>
+  <dimension ref="A1:M344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,19 @@
         <v>-112548.1118214299</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>41.12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41.12</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +985,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1024,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1195,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1228,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1261,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1327,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1360,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1393,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1424,21 @@
         <v>152431.8767608901</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1463,21 @@
         <v>175730.8529608901</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.56</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1502,21 @@
         <v>169275.2591608901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>41.69</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1543,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1580,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1617,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1654,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1691,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1728,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1765,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1802,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1839,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1876,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1913,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1950,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1987,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2024,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2061,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2098,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2135,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2172,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2209,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2246,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2281,19 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2320,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2357,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2394,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2431,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2468,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2505,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2542,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2579,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2616,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2653,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2690,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2727,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2764,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2801,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2838,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2875,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2912,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2949,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2986,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3023,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3060,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3097,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3134,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3171,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3208,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3245,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3282,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3319,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3356,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3393,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3430,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3467,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3504,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3541,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3578,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3615,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3652,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3689,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3726,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3763,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3800,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3837,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3874,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3911,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3948,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3985,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +4022,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4059,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4096,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4133,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4170,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4207,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4244,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4281,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4318,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4355,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4392,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4429,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4466,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4503,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4540,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4577,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4614,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4651,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4686,21 @@
         <v>-200891.93933911</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4725,21 @@
         <v>-203231.2602391099</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4764,21 @@
         <v>-202960.20473911</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>41.19</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4803,21 @@
         <v>-202960.20473911</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>41.43</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4842,21 @@
         <v>-194284.70863911</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>41.43</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4881,21 @@
         <v>-194266.11333911</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>41.53</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4922,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4959,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4996,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +5033,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5070,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5107,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +5142,21 @@
         <v>-288524.85033911</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>41.51</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5183,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5220,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5257,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5294,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5331,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5368,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5405,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +5440,21 @@
         <v>-254649.42153911</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>41.43</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5481,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5518,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5555,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5592,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5629,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5666,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5703,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5740,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5777,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5814,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5851,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5888,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5925,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5960,17 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5995,15 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +6028,15 @@
         <v>-161334.2715817</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6000,18 +6061,15 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +6094,15 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,18 +6127,15 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +6160,15 @@
         <v>-129486.7101817</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +6193,15 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +6226,15 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +6259,15 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +6292,15 @@
         <v>-157597.4860817</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6327,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6360,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6393,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6426,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6459,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6492,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6525,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6558,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6591,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6612,18 +6622,15 @@
         <v>-172892.4783817</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6648,18 +6655,15 @@
         <v>-172892.4783817</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6684,18 +6688,15 @@
         <v>-172948.7412817</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6723,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6756,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6789,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6822,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6855,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6900,18 +6886,15 @@
         <v>-173105.0758817</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6921,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6954,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6987,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +7020,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +7053,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +7086,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +7119,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +7152,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +7185,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +7218,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +7251,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7332,22 +7282,15 @@
         <v>-188854.32392738</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="K193" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7374,24 +7317,13 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K194" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7416,24 +7348,15 @@
         <v>-195709.38362738</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7458,26 +7381,15 @@
         <v>-195709.38362738</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="K196" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7502,24 +7414,15 @@
         <v>-195709.38362738</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7546,22 +7449,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7588,22 +7482,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7630,22 +7515,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7672,22 +7548,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7714,22 +7581,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7756,22 +7614,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7798,22 +7647,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7838,24 +7678,15 @@
         <v>-199065.60586799</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7880,24 +7711,15 @@
         <v>-198002.74766799</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7922,24 +7744,15 @@
         <v>-202280.7711679901</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7964,24 +7777,15 @@
         <v>-202800.7573679901</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8006,24 +7810,15 @@
         <v>-202805.7243679901</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8050,22 +7845,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8092,22 +7878,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8134,22 +7911,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8176,22 +7944,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8218,22 +7977,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8260,22 +8010,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8302,22 +8043,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8344,22 +8076,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8386,22 +8109,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8428,22 +8142,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8470,22 +8175,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8512,22 +8208,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8552,26 +8239,15 @@
         <v>-76561.10136799009</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="K222" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8598,22 +8274,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8640,22 +8307,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8682,22 +8340,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8724,22 +8373,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8766,22 +8406,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8808,22 +8439,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8850,22 +8472,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8892,22 +8505,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8934,22 +8538,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8976,22 +8571,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9018,22 +8604,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9060,22 +8637,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9102,22 +8670,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9144,22 +8703,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9186,22 +8736,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9228,22 +8769,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9270,22 +8802,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9312,22 +8835,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9354,22 +8868,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9396,22 +8901,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9438,22 +8934,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9480,22 +8967,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9522,22 +9000,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9564,22 +9033,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9606,22 +9066,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9648,22 +9099,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9690,22 +9132,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9732,22 +9165,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9774,22 +9198,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9816,22 +9231,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9858,22 +9264,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9900,22 +9297,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9942,22 +9330,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>0.9983500837520939</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9984,16 +9363,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10020,16 +9396,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10056,16 +9429,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10092,16 +9462,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10126,18 +9493,15 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10162,18 +9526,15 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10198,18 +9559,15 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10234,18 +9592,15 @@
         <v>8759.579690769913</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10272,16 +9627,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10308,16 +9660,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10344,16 +9693,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10380,16 +9726,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10416,16 +9759,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10452,16 +9792,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10488,16 +9825,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10522,18 +9856,15 @@
         <v>-24186.00320923009</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10558,18 +9889,15 @@
         <v>-26059.29260923009</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10596,16 +9924,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10632,16 +9957,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10668,16 +9990,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10704,16 +10023,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10740,16 +10056,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10776,16 +10089,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10812,16 +10122,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10848,16 +10155,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10884,16 +10188,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10920,16 +10221,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10956,16 +10254,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10992,16 +10287,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11028,16 +10320,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11064,16 +10353,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11100,16 +10386,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11136,16 +10419,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11172,16 +10452,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11208,16 +10485,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11244,16 +10518,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11280,16 +10551,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11316,16 +10584,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11352,16 +10617,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11388,16 +10650,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11424,16 +10683,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11460,16 +10716,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11496,16 +10749,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11532,16 +10782,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11568,16 +10815,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11604,16 +10848,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11640,16 +10881,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11676,16 +10914,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11712,16 +10947,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11746,18 +10978,15 @@
         <v>-252439.9216891001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11784,16 +11013,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11820,16 +11046,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11856,16 +11079,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11892,16 +11112,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11928,16 +11145,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11964,16 +11178,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12000,16 +11211,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12036,16 +11244,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12072,16 +11277,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12108,16 +11310,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12144,16 +11343,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12180,16 +11376,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12216,16 +11409,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12252,16 +11442,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12288,16 +11475,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12324,16 +11508,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12358,18 +11539,19 @@
         <v>-271832.5959743502</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>41.42</v>
+      </c>
+      <c r="J322" t="n">
+        <v>41.42</v>
+      </c>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12396,16 +11578,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12430,22 +11615,23 @@
         <v>-269951.5170064402</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>41.4</v>
       </c>
       <c r="J324" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K324" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+        <v>41.42</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12470,26 +11656,23 @@
         <v>-270626.0107064402</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="J325" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="K325" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+        <v>41.42</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12514,26 +11697,21 @@
         <v>-262912.7622064402</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="K326" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+        <v>41.42</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12558,22 +11736,21 @@
         <v>-262912.7622064402</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>41.42</v>
       </c>
-      <c r="K327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12598,26 +11775,21 @@
         <v>-269155.7484064402</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>41.42</v>
       </c>
-      <c r="K328" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12642,26 +11814,21 @@
         <v>-269155.7484064402</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="K329" t="n">
         <v>41.42</v>
       </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12686,26 +11853,21 @@
         <v>-269155.7484064402</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="K330" t="n">
         <v>41.42</v>
       </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12730,26 +11892,21 @@
         <v>-286952.8569064402</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="K331" t="n">
         <v>41.42</v>
       </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12774,26 +11931,21 @@
         <v>-286192.7849064402</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K332" t="n">
         <v>41.42</v>
       </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12818,26 +11970,21 @@
         <v>-286192.7849064402</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K333" t="n">
         <v>41.42</v>
       </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12862,26 +12009,21 @@
         <v>-285432.7129064402</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K334" t="n">
         <v>41.42</v>
       </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12906,26 +12048,21 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="K335" t="n">
         <v>41.42</v>
       </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12950,26 +12087,21 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K336" t="n">
         <v>41.42</v>
       </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12994,26 +12126,21 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K337" t="n">
         <v>41.42</v>
       </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13038,26 +12165,21 @@
         <v>-294910.1849064401</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K338" t="n">
         <v>41.42</v>
       </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13082,26 +12204,23 @@
         <v>-294910.1849064401</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="n">
-        <v>0</v>
+        <v>41.27</v>
       </c>
       <c r="J339" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="K339" t="n">
         <v>41.42</v>
       </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13126,26 +12245,21 @@
         <v>-291641.5295064402</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="K340" t="n">
         <v>41.42</v>
       </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13170,26 +12284,21 @@
         <v>-291641.5295064402</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="K341" t="n">
         <v>41.42</v>
       </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13214,26 +12323,21 @@
         <v>-289969.8965064402</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="K342" t="n">
         <v>41.42</v>
       </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13260,22 +12364,19 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
         <v>41.42</v>
       </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13302,24 +12403,21 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
         <v>41.42</v>
       </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>72905.69507857005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>49032.64757857005</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>63366.29317857005</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>13621.33997857005</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-47378.66002142995</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -946,14 +946,10 @@
         <v>-112548.1118214299</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>41.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -986,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1025,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1424,17 +1408,11 @@
         <v>152431.8767608901</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1463,17 +1441,11 @@
         <v>175730.8529608901</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>41.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1502,17 +1474,11 @@
         <v>169275.2591608901</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>41.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1619,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1656,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1693,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1730,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1767,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1841,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1878,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1915,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1948,15 +1870,11 @@
         <v>206764.1350608901</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1985,15 +1903,11 @@
         <v>206793.0827608901</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2022,15 +1936,11 @@
         <v>198690.7711608901</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2059,15 +1969,11 @@
         <v>205869.4931608901</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2096,15 +2002,11 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2133,15 +2035,11 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2170,15 +2068,11 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2207,15 +2101,11 @@
         <v>105791.9314608901</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2244,15 +2134,11 @@
         <v>105543.0319608901</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2281,15 +2167,11 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2322,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2359,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2392,15 +2266,11 @@
         <v>104188.9174608901</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2433,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2470,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2507,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2544,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2581,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2618,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2655,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2692,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2725,15 +2563,11 @@
         <v>75631.60436089011</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2762,15 +2596,11 @@
         <v>74901.60436089011</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2803,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2836,15 +2662,11 @@
         <v>75571.60436089011</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2873,15 +2695,11 @@
         <v>75571.60436089011</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2910,15 +2728,11 @@
         <v>75571.60436089011</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2947,15 +2761,11 @@
         <v>43732.34656089011</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2984,15 +2794,11 @@
         <v>40433.90706089011</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3062,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3095,15 +2893,11 @@
         <v>41836.79516089011</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3132,15 +2926,11 @@
         <v>42231.79516089011</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3206,15 +2992,11 @@
         <v>42415.77916089011</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3243,15 +3025,11 @@
         <v>42929.34626089011</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3280,15 +3058,11 @@
         <v>58213.56676089011</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3317,15 +3091,11 @@
         <v>58423.98466089011</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3354,15 +3124,11 @@
         <v>44453.36226089011</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3391,15 +3157,11 @@
         <v>44453.36226089011</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3428,15 +3190,11 @@
         <v>36364.30106089011</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3465,15 +3223,11 @@
         <v>31258.88316089011</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3502,15 +3256,11 @@
         <v>48424.43276089011</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3539,15 +3289,11 @@
         <v>37099.29506089011</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3576,15 +3322,11 @@
         <v>37909.29506089011</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3650,15 +3388,11 @@
         <v>35699.01276089011</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3687,15 +3421,11 @@
         <v>41582.32396089011</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3728,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3765,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3876,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3913,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3950,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4024,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4061,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4098,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4135,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4172,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4209,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4283,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4320,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4394,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4616,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4653,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4686,17 +4312,11 @@
         <v>-200891.93933911</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>41.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4725,17 +4345,11 @@
         <v>-203231.2602391099</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>41.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4764,17 +4378,11 @@
         <v>-202960.20473911</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>41.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4803,17 +4411,11 @@
         <v>-202960.20473911</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>41.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4842,17 +4444,11 @@
         <v>-194284.70863911</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>41.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4881,17 +4477,11 @@
         <v>-194266.11333911</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>41.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4961,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5035,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5142,17 +4708,11 @@
         <v>-288524.85033911</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>41.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5185,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5259,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5296,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5333,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5370,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5440,17 +4972,11 @@
         <v>-254649.42153911</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>41.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5483,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5520,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5594,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5705,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5742,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5779,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5853,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5890,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5927,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5960,16 +5434,14 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -5995,7 +5467,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6028,7 +5500,7 @@
         <v>-161334.2715817</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6061,7 +5533,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6094,7 +5566,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6127,7 +5599,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6160,7 +5632,7 @@
         <v>-129486.7101817</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6193,7 +5665,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6226,7 +5698,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6259,7 +5731,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6292,7 +5764,7 @@
         <v>-157597.4860817</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6523,10 +5995,14 @@
         <v>-175768.0965817</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="J170" t="n">
+        <v>41.71</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6556,11 +6032,19 @@
         <v>-175768.0965817</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="J171" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6073,19 @@
         <v>-173024.2965817</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="J172" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6622,7 +6114,7 @@
         <v>-172892.4783817</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6655,7 +6147,7 @@
         <v>-172892.4783817</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6688,7 +6180,7 @@
         <v>-172948.7412817</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6886,7 +6378,7 @@
         <v>-173105.0758817</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7315,7 +6807,7 @@
         <v>-195709.38362738</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7348,7 +6840,7 @@
         <v>-195709.38362738</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7414,7 +6906,7 @@
         <v>-195709.38362738</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7678,7 +7170,7 @@
         <v>-199065.60586799</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7711,7 +7203,7 @@
         <v>-198002.74766799</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7744,7 +7236,7 @@
         <v>-202280.7711679901</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7777,7 +7269,7 @@
         <v>-202800.7573679901</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7810,7 +7302,7 @@
         <v>-202805.7243679901</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -9493,7 +8985,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9526,7 +9018,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9559,7 +9051,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9592,7 +9084,7 @@
         <v>8759.579690769913</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9856,7 +9348,7 @@
         <v>-24186.00320923009</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9889,7 +9381,7 @@
         <v>-26059.29260923009</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10978,7 +10470,7 @@
         <v>-252439.9216891001</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11539,14 +11031,10 @@
         <v>-271832.5959743502</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="J322" t="n">
-        <v>41.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
@@ -11576,17 +11064,15 @@
         <v>-274437.3230743502</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>41.42</v>
+      </c>
       <c r="J323" t="n">
         <v>41.42</v>
       </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11615,7 +11101,7 @@
         <v>-269951.5170064402</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>41.4</v>
@@ -11656,7 +11142,7 @@
         <v>-270626.0107064402</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>41.58</v>
@@ -11697,9 +11183,11 @@
         <v>-262912.7622064402</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>41.41</v>
+      </c>
       <c r="J326" t="n">
         <v>41.42</v>
       </c>
@@ -11736,9 +11224,11 @@
         <v>-262912.7622064402</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>41.42</v>
+      </c>
       <c r="J327" t="n">
         <v>41.42</v>
       </c>
@@ -11775,9 +11265,11 @@
         <v>-269155.7484064402</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>41.42</v>
+      </c>
       <c r="J328" t="n">
         <v>41.42</v>
       </c>
@@ -11814,9 +11306,11 @@
         <v>-269155.7484064402</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>41.41</v>
+      </c>
       <c r="J329" t="n">
         <v>41.42</v>
       </c>
@@ -11853,9 +11347,11 @@
         <v>-269155.7484064402</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>41.41</v>
+      </c>
       <c r="J330" t="n">
         <v>41.42</v>
       </c>
@@ -11892,9 +11388,11 @@
         <v>-286952.8569064402</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>41.41</v>
+      </c>
       <c r="J331" t="n">
         <v>41.42</v>
       </c>
@@ -11931,9 +11429,11 @@
         <v>-286192.7849064402</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J332" t="n">
         <v>41.42</v>
       </c>
@@ -11970,9 +11470,11 @@
         <v>-286192.7849064402</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>41.34</v>
+      </c>
       <c r="J333" t="n">
         <v>41.42</v>
       </c>
@@ -12009,9 +11511,11 @@
         <v>-285432.7129064402</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>41.34</v>
+      </c>
       <c r="J334" t="n">
         <v>41.42</v>
       </c>
@@ -12048,9 +11552,11 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>41.36</v>
+      </c>
       <c r="J335" t="n">
         <v>41.42</v>
       </c>
@@ -12087,9 +11593,11 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>41.34</v>
+      </c>
       <c r="J336" t="n">
         <v>41.42</v>
       </c>
@@ -12126,9 +11634,11 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>41.34</v>
+      </c>
       <c r="J337" t="n">
         <v>41.42</v>
       </c>
@@ -12165,9 +11675,11 @@
         <v>-294910.1849064401</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>41.34</v>
+      </c>
       <c r="J338" t="n">
         <v>41.42</v>
       </c>
@@ -12204,7 +11716,7 @@
         <v>-294910.1849064401</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>41.27</v>
@@ -12245,9 +11757,11 @@
         <v>-291641.5295064402</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>41.27</v>
+      </c>
       <c r="J340" t="n">
         <v>41.42</v>
       </c>
@@ -12284,9 +11798,11 @@
         <v>-291641.5295064402</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>41.36</v>
+      </c>
       <c r="J341" t="n">
         <v>41.42</v>
       </c>
@@ -12323,9 +11839,11 @@
         <v>-289969.8965064402</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>41.36</v>
+      </c>
       <c r="J342" t="n">
         <v>41.42</v>
       </c>
@@ -12418,6 +11936,6 @@
       <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>72905.69507857005</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>49032.64757857005</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>63366.29317857005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>13621.33997857005</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-47378.66002142995</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>169275.2591608901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>171027.4754608901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>171280.8632608901</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>168461.9136608901</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>168500.6984608901</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>166040.6984608901</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>129763.2913608901</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>133299.5718608901</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>68479.09056089011</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>75954.61756089011</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>77664.68916089011</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>75571.60436089011</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>75571.60436089011</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>75571.60436089011</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>43732.34656089011</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>40433.90706089011</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>41836.79516089011</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>42231.79516089011</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>42415.77916089011</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>42929.34626089011</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>58213.56676089011</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>58423.98466089011</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>44453.36226089011</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>44453.36226089011</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>36364.30106089011</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>31258.88316089011</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>48424.43276089011</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>37099.29506089011</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>37909.29506089011</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>35699.01276089011</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>41582.32396089011</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-193497.4243817</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-167818.8974817</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-167804.1357817</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-162079.8483817</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5995,14 +5995,10 @@
         <v>-175768.0965817</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J170" t="n">
-        <v>41.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6032,19 +6028,11 @@
         <v>-175768.0965817</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J171" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6073,19 +6061,11 @@
         <v>-173024.2965817</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J172" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +11044,10 @@
         <v>-274437.3230743502</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="J323" t="n">
-        <v>41.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
@@ -11101,470 +11077,380 @@
         <v>-269951.5170064402</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="C325" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D325" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="E325" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="F325" t="n">
+        <v>674.4937</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-270626.0107064402</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
         <v>41.42</v>
       </c>
-      <c r="K324" t="inlineStr">
+      <c r="C326" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="D326" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="E326" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="F326" t="n">
+        <v>7713.2485</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-262912.7622064402</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="C327" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="D327" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="E327" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1547.1893</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-262912.7622064402</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="C328" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D328" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="E328" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="F328" t="n">
+        <v>6242.9862</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-269155.7484064402</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="C329" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D329" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="E329" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="F329" t="n">
+        <v>44386.2539</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-269155.7484064402</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="C330" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D330" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="E330" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="F330" t="n">
+        <v>4631.802</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-269155.7484064402</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C331" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E331" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F331" t="n">
+        <v>17797.1085</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-286952.8569064402</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="C332" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="D332" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="E332" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F332" t="n">
+        <v>760.072</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-286192.7849064402</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="C333" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="D333" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="E333" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3959.2145</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-286192.7849064402</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="C334" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="D334" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="E334" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="F334" t="n">
+        <v>760.072</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-285432.7129064402</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="C335" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="D335" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="E335" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F335" t="n">
+        <v>7277.252</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-292709.9649064402</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="C325" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D325" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="E325" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="F325" t="n">
-        <v>674.4937</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-270626.0107064402</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="J325" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="C326" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="D326" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="E326" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="F326" t="n">
-        <v>7713.2485</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-262912.7622064402</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="J326" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="C327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="D327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="E327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="F327" t="n">
-        <v>1547.1893</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-262912.7622064402</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="J327" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="C328" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D328" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="E328" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="F328" t="n">
-        <v>6242.9862</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-269155.7484064402</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="J328" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="C329" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D329" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="E329" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="F329" t="n">
-        <v>44386.2539</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-269155.7484064402</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="J329" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="C330" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D330" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="E330" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="F330" t="n">
-        <v>4631.802</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-269155.7484064402</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="J330" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C331" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D331" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="E331" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="F331" t="n">
-        <v>17797.1085</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-286952.8569064402</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="J331" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="C332" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="D332" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="E332" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="F332" t="n">
-        <v>760.072</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-286192.7849064402</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J332" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="C333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="D333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="E333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="F333" t="n">
-        <v>3959.2145</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-286192.7849064402</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J333" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="C334" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="D334" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="E334" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="F334" t="n">
-        <v>760.072</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-285432.7129064402</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J334" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="C335" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="D335" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="E335" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="F335" t="n">
-        <v>7277.252</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-292709.9649064402</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="J335" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11593,14 +11479,10 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J336" t="n">
-        <v>41.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11634,14 +11516,10 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J337" t="n">
-        <v>41.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11680,9 +11558,7 @@
       <c r="I338" t="n">
         <v>41.34</v>
       </c>
-      <c r="J338" t="n">
-        <v>41.42</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,9 +11597,7 @@
       <c r="I339" t="n">
         <v>41.27</v>
       </c>
-      <c r="J339" t="n">
-        <v>41.42</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11762,9 +11636,7 @@
       <c r="I340" t="n">
         <v>41.27</v>
       </c>
-      <c r="J340" t="n">
-        <v>41.42</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,9 +11675,7 @@
       <c r="I341" t="n">
         <v>41.36</v>
       </c>
-      <c r="J341" t="n">
-        <v>41.42</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11844,9 +11714,7 @@
       <c r="I342" t="n">
         <v>41.36</v>
       </c>
-      <c r="J342" t="n">
-        <v>41.42</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,12 +11748,12 @@
         <v>-193940.4155064402</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>41.42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11922,9 +11790,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>41.42</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11936,6 +11802,6 @@
       <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -1474,7 +1474,7 @@
         <v>169275.2591608901</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>171027.4754608901</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>171280.8632608901</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>168461.9136608901</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>168500.6984608901</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>166040.6984608901</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>206764.1350608901</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>206793.0827608901</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>198690.7711608901</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>205869.4931608901</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>105791.9314608901</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>105543.0319608901</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>104188.9174608901</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>129763.2913608901</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>133299.5718608901</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>68479.09056089011</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>75954.61756089011</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>77664.68916089011</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>75631.60436089011</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>74901.60436089011</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-193497.4243817</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-167818.8974817</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-167804.1357817</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-162079.8483817</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-161334.2715817</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-129486.7101817</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-158205.5513817</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-158117.9677817</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-158082.2041817</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-152048.2679817</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-77131.1740679901</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>8790.841190769914</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-23233.67430923009</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-23233.67430923009</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-23271.88900923009</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -11374,10 +11374,14 @@
         <v>-286192.7849064402</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="J333" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
@@ -11410,8 +11414,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,12 +11450,12 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -11479,10 +11489,14 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="J336" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11516,10 +11530,14 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="J337" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,7 +11576,9 @@
       <c r="I338" t="n">
         <v>41.34</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,7 +11617,9 @@
       <c r="I339" t="n">
         <v>41.27</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,7 +11658,9 @@
       <c r="I340" t="n">
         <v>41.27</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,7 +11699,9 @@
       <c r="I341" t="n">
         <v>41.36</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,7 +11740,9 @@
       <c r="I342" t="n">
         <v>41.36</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11748,12 +11776,12 @@
         <v>-193940.4155064402</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>41.53</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11790,7 +11818,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>41.34</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-12 BackTest ADA.xlsx
+++ b/BackTest/2020-01-12 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M344"/>
+  <dimension ref="A1:L344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>900.912</v>
       </c>
       <c r="G2" t="n">
-        <v>72816.70491307005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>88.9901655</v>
       </c>
       <c r="G3" t="n">
-        <v>72905.69507857005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>47399.3069</v>
       </c>
       <c r="G4" t="n">
-        <v>72905.69507857005</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>23873.0475</v>
       </c>
       <c r="G5" t="n">
-        <v>49032.64757857005</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>20982.6671</v>
       </c>
       <c r="G6" t="n">
-        <v>70015.31467857005</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6649.0215</v>
       </c>
       <c r="G7" t="n">
-        <v>63366.29317857005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>49744.9532</v>
       </c>
       <c r="G8" t="n">
-        <v>13621.33997857005</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>61000</v>
       </c>
       <c r="G9" t="n">
-        <v>-47378.66002142995</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>-47378.66002142995</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>72.19750000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-47378.66002142995</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>56</v>
       </c>
       <c r="G12" t="n">
-        <v>-47378.66002142995</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>71346.48209999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-118725.1421214299</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>-118625.1421214299</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>-118625.1421214299</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1174.7127</v>
       </c>
       <c r="G16" t="n">
-        <v>-119799.85482143</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>7251.743</v>
       </c>
       <c r="G17" t="n">
-        <v>-112548.1118214299</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,19 @@
         <v>2064.1181</v>
       </c>
       <c r="G18" t="n">
-        <v>-110483.9937214299</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>41.33</v>
+      </c>
+      <c r="I18" t="n">
+        <v>41.33</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +957,21 @@
         <v>1200</v>
       </c>
       <c r="G19" t="n">
-        <v>-109283.9937214299</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +993,21 @@
         <v>256.9005</v>
       </c>
       <c r="G20" t="n">
-        <v>-109027.0932214299</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>929.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>-109957.0931214299</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,15 @@
         <v>1550.4651</v>
       </c>
       <c r="G22" t="n">
-        <v>-108406.6280214299</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1089,15 @@
         <v>62001.2395</v>
       </c>
       <c r="G23" t="n">
-        <v>-46405.38852142993</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,15 @@
         <v>92098.98940000001</v>
       </c>
       <c r="G24" t="n">
-        <v>45693.60087857008</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>2508.4891</v>
       </c>
       <c r="G25" t="n">
-        <v>43185.11177857008</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>453.5341</v>
       </c>
       <c r="G26" t="n">
-        <v>42731.57767857008</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>565.0319</v>
       </c>
       <c r="G27" t="n">
-        <v>42166.54577857008</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>101255.2218</v>
       </c>
       <c r="G28" t="n">
-        <v>143421.7675785701</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>3405.70308232</v>
       </c>
       <c r="G29" t="n">
-        <v>146827.4706608901</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>455.5939</v>
       </c>
       <c r="G30" t="n">
-        <v>146371.8767608901</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>6060</v>
       </c>
       <c r="G31" t="n">
-        <v>152431.8767608901</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>23298.9762</v>
       </c>
       <c r="G32" t="n">
-        <v>175730.8529608901</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>6455.5938</v>
       </c>
       <c r="G33" t="n">
-        <v>169275.2591608901</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>1752.2163</v>
       </c>
       <c r="G34" t="n">
-        <v>171027.4754608901</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>253.3878</v>
       </c>
       <c r="G35" t="n">
-        <v>171280.8632608901</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>2818.9496</v>
       </c>
       <c r="G36" t="n">
-        <v>168461.9136608901</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>38.7848</v>
       </c>
       <c r="G37" t="n">
-        <v>168500.6984608901</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>2460</v>
       </c>
       <c r="G38" t="n">
-        <v>166040.6984608901</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>5999.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>172040.6983608901</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>0.0001</v>
       </c>
       <c r="G40" t="n">
-        <v>172040.6983608901</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>33687.6676</v>
       </c>
       <c r="G41" t="n">
-        <v>205728.3659608901</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>6266.6527</v>
       </c>
       <c r="G42" t="n">
-        <v>205728.3659608901</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>1716.6076</v>
       </c>
       <c r="G43" t="n">
-        <v>205728.3659608901</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>2587.4827</v>
       </c>
       <c r="G44" t="n">
-        <v>208315.8486608901</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>1551.7136</v>
       </c>
       <c r="G45" t="n">
-        <v>206764.1350608901</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>28.9477</v>
       </c>
       <c r="G46" t="n">
-        <v>206793.0827608901</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>8102.3116</v>
       </c>
       <c r="G47" t="n">
-        <v>198690.7711608901</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>7178.722</v>
       </c>
       <c r="G48" t="n">
-        <v>205869.4931608901</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>1234.588</v>
       </c>
       <c r="G49" t="n">
-        <v>204634.9051608901</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>8066</v>
       </c>
       <c r="G50" t="n">
-        <v>204634.9051608901</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>6533.3</v>
       </c>
       <c r="G51" t="n">
-        <v>204634.9051608901</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>98842.9737</v>
       </c>
       <c r="G52" t="n">
-        <v>105791.9314608901</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>248.8995</v>
       </c>
       <c r="G53" t="n">
-        <v>105543.0319608901</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>1005.9678</v>
       </c>
       <c r="G54" t="n">
-        <v>106548.9997608901</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>1551.1867</v>
       </c>
       <c r="G55" t="n">
-        <v>106548.9997608901</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>779.2337</v>
       </c>
       <c r="G56" t="n">
-        <v>106548.9997608901</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>2360.0823</v>
       </c>
       <c r="G57" t="n">
-        <v>104188.9174608901</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>25574.3739</v>
       </c>
       <c r="G58" t="n">
-        <v>129763.2913608901</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>3536.2805</v>
       </c>
       <c r="G59" t="n">
-        <v>133299.5718608901</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>8195.3143</v>
       </c>
       <c r="G60" t="n">
-        <v>125104.2575608901</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>2587.5762</v>
       </c>
       <c r="G61" t="n">
-        <v>125104.2575608901</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>56625.167</v>
       </c>
       <c r="G62" t="n">
-        <v>68479.09056089011</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>7475.527</v>
       </c>
       <c r="G63" t="n">
-        <v>75954.61756089011</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>1710.0716</v>
       </c>
       <c r="G64" t="n">
-        <v>77664.68916089011</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,15 @@
         <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>77676.68916089011</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2379,15 @@
         <v>2045.0848</v>
       </c>
       <c r="G66" t="n">
-        <v>75631.60436089011</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2409,15 @@
         <v>730</v>
       </c>
       <c r="G67" t="n">
-        <v>74901.60436089011</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2439,15 @@
         <v>720</v>
       </c>
       <c r="G68" t="n">
-        <v>75621.60436089011</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2469,15 @@
         <v>50</v>
       </c>
       <c r="G69" t="n">
-        <v>75571.60436089011</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2499,15 @@
         <v>2672.6878</v>
       </c>
       <c r="G70" t="n">
-        <v>75571.60436089011</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2529,15 @@
         <v>13028.5667</v>
       </c>
       <c r="G71" t="n">
-        <v>75571.60436089011</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2559,15 @@
         <v>31839.2578</v>
       </c>
       <c r="G72" t="n">
-        <v>43732.34656089011</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2589,15 @@
         <v>3298.4395</v>
       </c>
       <c r="G73" t="n">
-        <v>40433.90706089011</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2619,15 @@
         <v>755.8542</v>
       </c>
       <c r="G74" t="n">
-        <v>39678.05286089011</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2649,15 @@
         <v>4111.0788</v>
       </c>
       <c r="G75" t="n">
-        <v>43789.13166089011</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2679,15 @@
         <v>1952.3365</v>
       </c>
       <c r="G76" t="n">
-        <v>41836.79516089011</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2709,15 @@
         <v>395</v>
       </c>
       <c r="G77" t="n">
-        <v>42231.79516089011</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>433.984</v>
       </c>
       <c r="G78" t="n">
-        <v>42665.77916089011</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>250</v>
       </c>
       <c r="G79" t="n">
-        <v>42415.77916089011</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>513.5671</v>
       </c>
       <c r="G80" t="n">
-        <v>42929.34626089011</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>15284.2205</v>
       </c>
       <c r="G81" t="n">
-        <v>58213.56676089011</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>210.4179</v>
       </c>
       <c r="G82" t="n">
-        <v>58423.98466089011</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>13970.6224</v>
       </c>
       <c r="G83" t="n">
-        <v>44453.36226089011</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>6999.6</v>
       </c>
       <c r="G84" t="n">
-        <v>44453.36226089011</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>8089.0612</v>
       </c>
       <c r="G85" t="n">
-        <v>36364.30106089011</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>5105.4179</v>
       </c>
       <c r="G86" t="n">
-        <v>31258.88316089011</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>17165.5496</v>
       </c>
       <c r="G87" t="n">
-        <v>48424.43276089011</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>11325.1377</v>
       </c>
       <c r="G88" t="n">
-        <v>37099.29506089011</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>810</v>
       </c>
       <c r="G89" t="n">
-        <v>37909.29506089011</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>25151.6293</v>
       </c>
       <c r="G90" t="n">
-        <v>12757.66576089011</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>22941.347</v>
       </c>
       <c r="G91" t="n">
-        <v>35699.01276089011</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>5883.3112</v>
       </c>
       <c r="G92" t="n">
-        <v>41582.32396089011</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>236.6718</v>
       </c>
       <c r="G93" t="n">
-        <v>41582.32396089011</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>9223.808000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>32358.5159608901</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>226.3784</v>
       </c>
       <c r="G95" t="n">
-        <v>32584.89436089011</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>12791.3045</v>
       </c>
       <c r="G96" t="n">
-        <v>32584.89436089011</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>86526.6651</v>
       </c>
       <c r="G97" t="n">
-        <v>-53941.7707391099</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,15 @@
         <v>988.508</v>
       </c>
       <c r="G98" t="n">
-        <v>-52953.26273910989</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3369,15 @@
         <v>34509.2779</v>
       </c>
       <c r="G99" t="n">
-        <v>-87462.54063910989</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3399,15 @@
         <v>10689.2389</v>
       </c>
       <c r="G100" t="n">
-        <v>-76773.3017391099</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3429,15 @@
         <v>48800.0783</v>
       </c>
       <c r="G101" t="n">
-        <v>-76773.3017391099</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3459,15 @@
         <v>2805.7161</v>
       </c>
       <c r="G102" t="n">
-        <v>-76773.3017391099</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3489,15 @@
         <v>3818.6454</v>
       </c>
       <c r="G103" t="n">
-        <v>-72954.6563391099</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3519,15 @@
         <v>17663.0396</v>
       </c>
       <c r="G104" t="n">
-        <v>-90617.69593910991</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3549,15 @@
         <v>21283.3622</v>
       </c>
       <c r="G105" t="n">
-        <v>-69334.3337391099</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3579,15 @@
         <v>86119.4244</v>
       </c>
       <c r="G106" t="n">
-        <v>-155453.7581391099</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3609,15 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>-155453.7581391099</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3639,15 @@
         <v>25286.3777</v>
       </c>
       <c r="G108" t="n">
-        <v>-155453.7581391099</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3669,15 @@
         <v>88</v>
       </c>
       <c r="G109" t="n">
-        <v>-155365.7581391099</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3699,15 @@
         <v>9188.856299999999</v>
       </c>
       <c r="G110" t="n">
-        <v>-146176.9018391099</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3729,15 @@
         <v>6138.3537</v>
       </c>
       <c r="G111" t="n">
-        <v>-152315.2555391099</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3759,15 @@
         <v>69.8202</v>
       </c>
       <c r="G112" t="n">
-        <v>-152245.4353391099</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3789,15 @@
         <v>24.7202</v>
       </c>
       <c r="G113" t="n">
-        <v>-152270.1555391099</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3819,15 @@
         <v>37.25</v>
       </c>
       <c r="G114" t="n">
-        <v>-152307.4055391099</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3849,15 @@
         <v>41590.8897</v>
       </c>
       <c r="G115" t="n">
-        <v>-152307.4055391099</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3879,15 @@
         <v>48153.9985</v>
       </c>
       <c r="G116" t="n">
-        <v>-200461.4040391099</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3909,15 @@
         <v>460.6453</v>
       </c>
       <c r="G117" t="n">
-        <v>-200922.0493391099</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3939,15 @@
         <v>30.11</v>
       </c>
       <c r="G118" t="n">
-        <v>-200891.93933911</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3969,15 @@
         <v>4642.633</v>
       </c>
       <c r="G119" t="n">
-        <v>-200891.93933911</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3999,15 @@
         <v>2339.3209</v>
       </c>
       <c r="G120" t="n">
-        <v>-203231.2602391099</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4029,15 @@
         <v>271.0555</v>
       </c>
       <c r="G121" t="n">
-        <v>-202960.20473911</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4059,15 @@
         <v>1307.8889</v>
       </c>
       <c r="G122" t="n">
-        <v>-202960.20473911</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4089,15 @@
         <v>8675.4961</v>
       </c>
       <c r="G123" t="n">
-        <v>-194284.70863911</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4119,15 @@
         <v>18.5953</v>
       </c>
       <c r="G124" t="n">
-        <v>-194266.11333911</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4149,15 @@
         <v>343.6587</v>
       </c>
       <c r="G125" t="n">
-        <v>-194266.11333911</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4179,15 @@
         <v>1225.6703</v>
       </c>
       <c r="G126" t="n">
-        <v>-195491.78363911</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4209,15 @@
         <v>787.8049</v>
       </c>
       <c r="G127" t="n">
-        <v>-194703.97873911</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4239,15 @@
         <v>15519.5986</v>
       </c>
       <c r="G128" t="n">
-        <v>-179184.38013911</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4269,15 @@
         <v>1284.1628</v>
       </c>
       <c r="G129" t="n">
-        <v>-179184.38013911</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4299,15 @@
         <v>113</v>
       </c>
       <c r="G130" t="n">
-        <v>-179297.38013911</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4329,15 @@
         <v>109227.4702</v>
       </c>
       <c r="G131" t="n">
-        <v>-288524.85033911</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4359,15 @@
         <v>919.8017</v>
       </c>
       <c r="G132" t="n">
-        <v>-288524.85033911</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4389,15 @@
         <v>3225.2307</v>
       </c>
       <c r="G133" t="n">
-        <v>-285299.61963911</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4419,15 @@
         <v>1080</v>
       </c>
       <c r="G134" t="n">
-        <v>-284219.61963911</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4449,15 @@
         <v>4519.448</v>
       </c>
       <c r="G135" t="n">
-        <v>-279700.17163911</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4479,15 @@
         <v>979.5522</v>
       </c>
       <c r="G136" t="n">
-        <v>-278720.61943911</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4509,15 @@
         <v>408.6412</v>
       </c>
       <c r="G137" t="n">
-        <v>-278720.61943911</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4539,15 @@
         <v>928.8021</v>
       </c>
       <c r="G138" t="n">
-        <v>-279649.42153911</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4569,15 @@
         <v>25000</v>
       </c>
       <c r="G139" t="n">
-        <v>-254649.42153911</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4599,15 @@
         <v>9006.01485741</v>
       </c>
       <c r="G140" t="n">
-        <v>-245643.4066817</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4629,15 @@
         <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>-246643.4066817</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4659,15 @@
         <v>9000</v>
       </c>
       <c r="G142" t="n">
-        <v>-246643.4066817</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4689,15 @@
         <v>3173.9546</v>
       </c>
       <c r="G143" t="n">
-        <v>-243469.4520817</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4719,15 @@
         <v>3699.1248</v>
       </c>
       <c r="G144" t="n">
-        <v>-239770.3272817</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4749,15 @@
         <v>46267.6818</v>
       </c>
       <c r="G145" t="n">
-        <v>-193502.6454817</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4779,15 @@
         <v>64.72580000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-193567.3712817</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4809,15 @@
         <v>69.9469</v>
       </c>
       <c r="G147" t="n">
-        <v>-193497.4243817</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4839,15 @@
         <v>25678.5269</v>
       </c>
       <c r="G148" t="n">
-        <v>-167818.8974817</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4869,15 @@
         <v>14.7617</v>
       </c>
       <c r="G149" t="n">
-        <v>-167804.1357817</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4899,15 @@
         <v>5724.2874</v>
       </c>
       <c r="G150" t="n">
-        <v>-162079.8483817</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4929,15 @@
         <v>19060.6478</v>
       </c>
       <c r="G151" t="n">
-        <v>-143019.2005817</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4959,15 @@
         <v>581.3821</v>
       </c>
       <c r="G152" t="n">
-        <v>-143600.5826817</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4989,15 @@
         <v>400</v>
       </c>
       <c r="G153" t="n">
-        <v>-143600.5826817</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5019,15 @@
         <v>40376.3772</v>
       </c>
       <c r="G154" t="n">
-        <v>-143600.5826817</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5049,15 @@
         <v>17733.6889</v>
       </c>
       <c r="G155" t="n">
-        <v>-161334.2715817</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5079,15 @@
         <v>32443.7531</v>
       </c>
       <c r="G156" t="n">
-        <v>-128890.5184817</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5109,15 @@
         <v>107.5985</v>
       </c>
       <c r="G157" t="n">
-        <v>-128890.5184817</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5139,15 @@
         <v>501.5588</v>
       </c>
       <c r="G158" t="n">
-        <v>-128890.5184817</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5169,15 @@
         <v>596.1917</v>
       </c>
       <c r="G159" t="n">
-        <v>-129486.7101817</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5199,15 @@
         <v>5651.9762</v>
       </c>
       <c r="G160" t="n">
-        <v>-135138.6863817</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5229,15 @@
         <v>10093.8686</v>
       </c>
       <c r="G161" t="n">
-        <v>-135138.6863817</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5259,15 @@
         <v>306.3355</v>
       </c>
       <c r="G162" t="n">
-        <v>-135138.6863817</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5289,15 @@
         <v>22458.7997</v>
       </c>
       <c r="G163" t="n">
-        <v>-157597.4860817</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5319,15 @@
         <v>20838.598</v>
       </c>
       <c r="G164" t="n">
-        <v>-178436.0840817</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5349,15 @@
         <v>418.897</v>
       </c>
       <c r="G165" t="n">
-        <v>-178017.1870817</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5379,15 @@
         <v>20271.7091</v>
       </c>
       <c r="G166" t="n">
-        <v>-198288.8961817</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5409,15 @@
         <v>141.64</v>
       </c>
       <c r="G167" t="n">
-        <v>-198430.5361817</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5439,15 @@
         <v>1646.9685</v>
       </c>
       <c r="G168" t="n">
-        <v>-200077.5046817</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5469,15 @@
         <v>24309.4081</v>
       </c>
       <c r="G169" t="n">
-        <v>-175768.0965817</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5499,15 @@
         <v>166.1192</v>
       </c>
       <c r="G170" t="n">
-        <v>-175768.0965817</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5529,15 @@
         <v>33.2258</v>
       </c>
       <c r="G171" t="n">
-        <v>-175768.0965817</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5559,15 @@
         <v>2743.8</v>
       </c>
       <c r="G172" t="n">
-        <v>-173024.2965817</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5589,15 @@
         <v>131.8182</v>
       </c>
       <c r="G173" t="n">
-        <v>-172892.4783817</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5619,15 @@
         <v>3317.4447</v>
       </c>
       <c r="G174" t="n">
-        <v>-172892.4783817</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5649,15 @@
         <v>56.2629</v>
       </c>
       <c r="G175" t="n">
-        <v>-172948.7412817</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5679,15 @@
         <v>843.7371000000001</v>
       </c>
       <c r="G176" t="n">
-        <v>-172948.7412817</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5709,15 @@
         <v>130.1279</v>
       </c>
       <c r="G177" t="n">
-        <v>-172948.7412817</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5739,15 @@
         <v>18.2945</v>
       </c>
       <c r="G178" t="n">
-        <v>-172948.7412817</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5769,15 @@
         <v>7.8405</v>
       </c>
       <c r="G179" t="n">
-        <v>-172948.7412817</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5799,15 @@
         <v>234.9923</v>
       </c>
       <c r="G180" t="n">
-        <v>-173183.7335817</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5829,15 @@
         <v>78.65770000000001</v>
       </c>
       <c r="G181" t="n">
-        <v>-173105.0758817</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5859,15 @@
         <v>14846.5643</v>
       </c>
       <c r="G182" t="n">
-        <v>-158258.5115817</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5889,15 @@
         <v>52.9602</v>
       </c>
       <c r="G183" t="n">
-        <v>-158205.5513817</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5919,15 @@
         <v>87.5836</v>
       </c>
       <c r="G184" t="n">
-        <v>-158117.9677817</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5949,15 @@
         <v>35.7636</v>
       </c>
       <c r="G185" t="n">
-        <v>-158082.2041817</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5979,15 @@
         <v>12128.1599</v>
       </c>
       <c r="G186" t="n">
-        <v>-145954.0442817</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6009,15 @@
         <v>6094.2237</v>
       </c>
       <c r="G187" t="n">
-        <v>-152048.2679817</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6039,15 @@
         <v>4030.7879</v>
       </c>
       <c r="G188" t="n">
-        <v>-156079.0558817</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6069,15 @@
         <v>266.716</v>
       </c>
       <c r="G189" t="n">
-        <v>-156079.0558817</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6099,15 @@
         <v>39144.31554568</v>
       </c>
       <c r="G190" t="n">
-        <v>-195223.37142738</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6129,15 @@
         <v>1400</v>
       </c>
       <c r="G191" t="n">
-        <v>-193823.37142738</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6159,15 @@
         <v>11299.2601</v>
       </c>
       <c r="G192" t="n">
-        <v>-205122.63152738</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6189,15 @@
         <v>16268.3076</v>
       </c>
       <c r="G193" t="n">
-        <v>-188854.32392738</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6219,15 @@
         <v>6855.0597</v>
       </c>
       <c r="G194" t="n">
-        <v>-195709.38362738</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6249,15 @@
         <v>14043.1411</v>
       </c>
       <c r="G195" t="n">
-        <v>-195709.38362738</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6279,15 @@
         <v>4590.0765</v>
       </c>
       <c r="G196" t="n">
-        <v>-195709.38362738</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6309,15 @@
         <v>4635.4372</v>
       </c>
       <c r="G197" t="n">
-        <v>-195709.38362738</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6339,15 @@
         <v>3269.4257</v>
       </c>
       <c r="G198" t="n">
-        <v>-195709.38362738</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6369,15 @@
         <v>13001.3307</v>
       </c>
       <c r="G199" t="n">
-        <v>-182708.05292738</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6399,15 @@
         <v>1882.6602</v>
       </c>
       <c r="G200" t="n">
-        <v>-182708.05292738</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6429,15 @@
         <v>2028.59544061</v>
       </c>
       <c r="G201" t="n">
-        <v>-184736.64836799</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6459,15 @@
         <v>1127.8384</v>
       </c>
       <c r="G202" t="n">
-        <v>-183608.80996799</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6489,15 @@
         <v>2264.0591</v>
       </c>
       <c r="G203" t="n">
-        <v>-181344.75086799</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6519,15 @@
         <v>400</v>
       </c>
       <c r="G204" t="n">
-        <v>-180944.75086799</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6549,15 @@
         <v>18120.855</v>
       </c>
       <c r="G205" t="n">
-        <v>-199065.60586799</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6579,15 @@
         <v>1062.8582</v>
       </c>
       <c r="G206" t="n">
-        <v>-198002.74766799</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6609,15 @@
         <v>4278.0235</v>
       </c>
       <c r="G207" t="n">
-        <v>-202280.7711679901</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6639,15 @@
         <v>519.9862000000001</v>
       </c>
       <c r="G208" t="n">
-        <v>-202800.7573679901</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6669,15 @@
         <v>4.967</v>
       </c>
       <c r="G209" t="n">
-        <v>-202805.7243679901</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6699,15 @@
         <v>22000.0969</v>
       </c>
       <c r="G210" t="n">
-        <v>-224805.8212679901</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6729,15 @@
         <v>844.0943</v>
       </c>
       <c r="G211" t="n">
-        <v>-223961.7269679901</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6759,15 @@
         <v>140043.3362</v>
       </c>
       <c r="G212" t="n">
-        <v>-83918.39076799009</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6789,15 @@
         <v>5098.5621</v>
       </c>
       <c r="G213" t="n">
-        <v>-78819.82866799009</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6819,15 @@
         <v>11408.6546</v>
       </c>
       <c r="G214" t="n">
-        <v>-67411.1740679901</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6849,15 @@
         <v>9720</v>
       </c>
       <c r="G215" t="n">
-        <v>-77131.1740679901</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6879,15 @@
         <v>6959.1513</v>
       </c>
       <c r="G216" t="n">
-        <v>-70172.0227679901</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6909,15 @@
         <v>50</v>
       </c>
       <c r="G217" t="n">
-        <v>-70172.0227679901</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6939,15 @@
         <v>453.9175</v>
       </c>
       <c r="G218" t="n">
-        <v>-70625.9402679901</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6969,15 @@
         <v>93.79389999999999</v>
       </c>
       <c r="G219" t="n">
-        <v>-70532.14636799009</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6999,15 @@
         <v>10777.7274</v>
       </c>
       <c r="G220" t="n">
-        <v>-81309.8737679901</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7029,15 @@
         <v>7145.152</v>
       </c>
       <c r="G221" t="n">
-        <v>-74164.72176799009</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7059,15 @@
         <v>2396.3796</v>
       </c>
       <c r="G222" t="n">
-        <v>-76561.10136799009</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7089,15 @@
         <v>28.1966</v>
       </c>
       <c r="G223" t="n">
-        <v>-76532.9047679901</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7119,15 @@
         <v>12660.3582</v>
       </c>
       <c r="G224" t="n">
-        <v>-76532.9047679901</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7149,15 @@
         <v>95822.2099</v>
       </c>
       <c r="G225" t="n">
-        <v>-172355.1146679901</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7179,15 @@
         <v>77726.5434</v>
       </c>
       <c r="G226" t="n">
-        <v>-94628.5712679901</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7209,15 @@
         <v>2195.3897</v>
       </c>
       <c r="G227" t="n">
-        <v>-96823.9609679901</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7239,15 @@
         <v>349.9406</v>
       </c>
       <c r="G228" t="n">
-        <v>-97173.90156799011</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7269,15 @@
         <v>70.2824</v>
       </c>
       <c r="G229" t="n">
-        <v>-97173.90156799011</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7299,15 @@
         <v>2878.7705</v>
       </c>
       <c r="G230" t="n">
-        <v>-94295.13106799011</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7329,15 @@
         <v>231.1079</v>
       </c>
       <c r="G231" t="n">
-        <v>-94526.23896799011</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7359,15 @@
         <v>221.3891</v>
       </c>
       <c r="G232" t="n">
-        <v>-94747.62806799011</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7389,15 @@
         <v>5065.8787</v>
       </c>
       <c r="G233" t="n">
-        <v>-94747.62806799011</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7419,15 @@
         <v>4255.7799</v>
       </c>
       <c r="G234" t="n">
-        <v>-94747.62806799011</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7449,15 @@
         <v>190.6067</v>
       </c>
       <c r="G235" t="n">
-        <v>-94557.02136799011</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7479,15 @@
         <v>2827.4017</v>
       </c>
       <c r="G236" t="n">
-        <v>-97384.42306799011</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7509,15 @@
         <v>5590.92717422</v>
       </c>
       <c r="G237" t="n">
-        <v>-91793.4958937701</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7539,15 @@
         <v>2399.6458</v>
       </c>
       <c r="G238" t="n">
-        <v>-89393.8500937701</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7569,15 @@
         <v>5000</v>
       </c>
       <c r="G239" t="n">
-        <v>-94393.8500937701</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7599,15 @@
         <v>1000</v>
       </c>
       <c r="G240" t="n">
-        <v>-95393.8500937701</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7629,15 @@
         <v>976.8163</v>
       </c>
       <c r="G241" t="n">
-        <v>-94417.0337937701</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7659,15 @@
         <v>173.1837</v>
       </c>
       <c r="G242" t="n">
-        <v>-94417.0337937701</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7689,15 @@
         <v>8571.321599999999</v>
       </c>
       <c r="G243" t="n">
-        <v>-94417.0337937701</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7719,15 @@
         <v>805.4563000000001</v>
       </c>
       <c r="G244" t="n">
-        <v>-93611.57749377009</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7749,15 @@
         <v>35.87658454</v>
       </c>
       <c r="G245" t="n">
-        <v>-93575.70090923009</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7779,15 @@
         <v>1000</v>
       </c>
       <c r="G246" t="n">
-        <v>-94575.70090923009</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7809,15 @@
         <v>210.6992</v>
       </c>
       <c r="G247" t="n">
-        <v>-94365.00170923008</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7839,15 @@
         <v>12</v>
       </c>
       <c r="G248" t="n">
-        <v>-94353.00170923008</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7869,15 @@
         <v>12</v>
       </c>
       <c r="G249" t="n">
-        <v>-94341.00170923008</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7899,15 @@
         <v>5198.6992</v>
       </c>
       <c r="G250" t="n">
-        <v>-94341.00170923008</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7929,15 @@
         <v>15800.4054</v>
       </c>
       <c r="G251" t="n">
-        <v>-78540.59630923008</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7959,15 @@
         <v>6668.2451</v>
       </c>
       <c r="G252" t="n">
-        <v>-78540.59630923008</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7989,15 @@
         <v>25550.0733</v>
       </c>
       <c r="G253" t="n">
-        <v>-78540.59630923008</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8019,15 @@
         <v>81697.98179999999</v>
       </c>
       <c r="G254" t="n">
-        <v>3157.385490769913</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8049,15 @@
         <v>5000</v>
       </c>
       <c r="G255" t="n">
-        <v>3157.385490769913</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8079,15 @@
         <v>1088.9927</v>
       </c>
       <c r="G256" t="n">
-        <v>3157.385490769913</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8109,15 @@
         <v>6566.4748</v>
       </c>
       <c r="G257" t="n">
-        <v>9723.860290769913</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8139,15 @@
         <v>1060.1357</v>
       </c>
       <c r="G258" t="n">
-        <v>9723.860290769913</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8169,15 @@
         <v>32754.7488</v>
       </c>
       <c r="G259" t="n">
-        <v>9723.860290769913</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8199,15 @@
         <v>10149.0681</v>
       </c>
       <c r="G260" t="n">
-        <v>9723.860290769913</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8229,15 @@
         <v>25798.3851</v>
       </c>
       <c r="G261" t="n">
-        <v>9723.860290769913</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8259,15 @@
         <v>20753.7259</v>
       </c>
       <c r="G262" t="n">
-        <v>9723.860290769913</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8289,15 @@
         <v>964.2806</v>
       </c>
       <c r="G263" t="n">
-        <v>8759.579690769913</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8319,15 @@
         <v>31.2615</v>
       </c>
       <c r="G264" t="n">
-        <v>8790.841190769914</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8349,15 @@
         <v>53.5703</v>
       </c>
       <c r="G265" t="n">
-        <v>8790.841190769914</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8379,15 @@
         <v>32024.5155</v>
       </c>
       <c r="G266" t="n">
-        <v>-23233.67430923009</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8409,15 @@
         <v>42963.6164</v>
       </c>
       <c r="G267" t="n">
-        <v>-23233.67430923009</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8439,15 @@
         <v>38.2147</v>
       </c>
       <c r="G268" t="n">
-        <v>-23271.88900923009</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8469,15 @@
         <v>433.3194</v>
       </c>
       <c r="G269" t="n">
-        <v>-23271.88900923009</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8499,15 @@
         <v>60.6581</v>
       </c>
       <c r="G270" t="n">
-        <v>-23211.23090923009</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8529,15 @@
         <v>974.7723</v>
       </c>
       <c r="G271" t="n">
-        <v>-24186.00320923009</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8559,15 @@
         <v>1873.2894</v>
       </c>
       <c r="G272" t="n">
-        <v>-26059.29260923009</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8589,15 @@
         <v>2444.4824</v>
       </c>
       <c r="G273" t="n">
-        <v>-23614.81020923009</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8619,15 @@
         <v>18.5541</v>
       </c>
       <c r="G274" t="n">
-        <v>-23596.25610923009</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8649,15 @@
         <v>71.60169999999999</v>
       </c>
       <c r="G275" t="n">
-        <v>-23667.85780923009</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8679,15 @@
         <v>2467.9999</v>
       </c>
       <c r="G276" t="n">
-        <v>-23667.85780923009</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8709,15 @@
         <v>12</v>
       </c>
       <c r="G277" t="n">
-        <v>-23655.85780923009</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8739,15 @@
         <v>4023.6701</v>
       </c>
       <c r="G278" t="n">
-        <v>-27679.52790923009</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8769,15 @@
         <v>3021.7578</v>
       </c>
       <c r="G279" t="n">
-        <v>-24657.77010923009</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8799,15 @@
         <v>1551.4654</v>
       </c>
       <c r="G280" t="n">
-        <v>-24657.77010923009</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8829,15 @@
         <v>309.7722</v>
       </c>
       <c r="G281" t="n">
-        <v>-24967.54230923009</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8859,15 @@
         <v>844.9785000000001</v>
       </c>
       <c r="G282" t="n">
-        <v>-24122.56380923009</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8889,15 @@
         <v>5025.8515</v>
       </c>
       <c r="G283" t="n">
-        <v>-29148.41530923009</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8919,15 @@
         <v>151200</v>
       </c>
       <c r="G284" t="n">
-        <v>-180348.4153092301</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8949,15 @@
         <v>626.328</v>
       </c>
       <c r="G285" t="n">
-        <v>-179722.0873092301</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8979,15 @@
         <v>63966.7517</v>
       </c>
       <c r="G286" t="n">
-        <v>-243688.8390092301</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9009,15 @@
         <v>1560.618</v>
       </c>
       <c r="G287" t="n">
-        <v>-242128.2210092301</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9039,15 @@
         <v>995.4842</v>
       </c>
       <c r="G288" t="n">
-        <v>-241132.7368092301</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9069,15 @@
         <v>9038.2675</v>
       </c>
       <c r="G289" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9099,15 @@
         <v>837.7039</v>
       </c>
       <c r="G290" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9129,15 @@
         <v>521.9848</v>
       </c>
       <c r="G291" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9159,15 @@
         <v>22321.1969</v>
       </c>
       <c r="G292" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9189,15 @@
         <v>35812.78123504</v>
       </c>
       <c r="G293" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9219,15 @@
         <v>17906.39061752</v>
       </c>
       <c r="G294" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9249,15 @@
         <v>2207.4448</v>
       </c>
       <c r="G295" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9279,15 @@
         <v>33376.1065</v>
       </c>
       <c r="G296" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9309,15 @@
         <v>4168.1237</v>
       </c>
       <c r="G297" t="n">
-        <v>-232094.4693092301</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9339,15 @@
         <v>8931.064546670001</v>
       </c>
       <c r="G298" t="n">
-        <v>-223163.4047625601</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9369,15 @@
         <v>37888.5996</v>
       </c>
       <c r="G299" t="n">
-        <v>-261052.0043625601</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9399,15 @@
         <v>11873.42157346</v>
       </c>
       <c r="G300" t="n">
-        <v>-249178.5827891001</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9429,15 @@
         <v>3032.8481</v>
       </c>
       <c r="G301" t="n">
-        <v>-252211.4308891001</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9459,15 @@
         <v>582.2329999999999</v>
       </c>
       <c r="G302" t="n">
-        <v>-252793.6638891001</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9489,15 @@
         <v>353.7422</v>
       </c>
       <c r="G303" t="n">
-        <v>-252439.9216891001</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9519,15 @@
         <v>103837.6908</v>
       </c>
       <c r="G304" t="n">
-        <v>-252439.9216891001</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9549,15 @@
         <v>31173.5939</v>
       </c>
       <c r="G305" t="n">
-        <v>-252439.9216891001</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9579,15 @@
         <v>102611.6636</v>
       </c>
       <c r="G306" t="n">
-        <v>-252439.9216891001</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9609,15 @@
         <v>900</v>
       </c>
       <c r="G307" t="n">
-        <v>-253339.9216891001</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9639,15 @@
         <v>1991.2557</v>
       </c>
       <c r="G308" t="n">
-        <v>-253339.9216891001</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9669,15 @@
         <v>204.134</v>
       </c>
       <c r="G309" t="n">
-        <v>-253544.0556891001</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9699,15 @@
         <v>37994.1</v>
       </c>
       <c r="G310" t="n">
-        <v>-253544.0556891001</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9729,15 @@
         <v>1673.44011475</v>
       </c>
       <c r="G311" t="n">
-        <v>-251870.6155743501</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9759,15 @@
         <v>1337.6147</v>
       </c>
       <c r="G312" t="n">
-        <v>-253208.2302743501</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9789,15 @@
         <v>5338.5712</v>
       </c>
       <c r="G313" t="n">
-        <v>-258546.8014743501</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9819,15 @@
         <v>39555.1397</v>
       </c>
       <c r="G314" t="n">
-        <v>-258546.8014743501</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9849,15 @@
         <v>388.0934</v>
       </c>
       <c r="G315" t="n">
-        <v>-258934.8948743501</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9879,15 @@
         <v>4090</v>
       </c>
       <c r="G316" t="n">
-        <v>-254844.8948743501</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9909,15 @@
         <v>10000</v>
       </c>
       <c r="G317" t="n">
-        <v>-264844.8948743502</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9939,15 @@
         <v>394.0399</v>
       </c>
       <c r="G318" t="n">
-        <v>-264844.8948743502</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9969,15 @@
         <v>7163.7781</v>
       </c>
       <c r="G319" t="n">
-        <v>-272008.6729743502</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +9999,15 @@
         <v>8000</v>
       </c>
       <c r="G320" t="n">
-        <v>-264008.6729743502</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10029,15 @@
         <v>7823.923</v>
       </c>
       <c r="G321" t="n">
-        <v>-271832.5959743502</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10059,15 @@
         <v>39586.4781</v>
       </c>
       <c r="G322" t="n">
-        <v>-271832.5959743502</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10089,15 @@
         <v>2604.7271</v>
       </c>
       <c r="G323" t="n">
-        <v>-274437.3230743502</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10119,15 @@
         <v>4485.80606791</v>
       </c>
       <c r="G324" t="n">
-        <v>-269951.5170064402</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10149,15 @@
         <v>674.4937</v>
       </c>
       <c r="G325" t="n">
-        <v>-270626.0107064402</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10179,15 @@
         <v>7713.2485</v>
       </c>
       <c r="G326" t="n">
-        <v>-262912.7622064402</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10209,15 @@
         <v>1547.1893</v>
       </c>
       <c r="G327" t="n">
-        <v>-262912.7622064402</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10239,15 @@
         <v>6242.9862</v>
       </c>
       <c r="G328" t="n">
-        <v>-269155.7484064402</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10269,19 @@
         <v>44386.2539</v>
       </c>
       <c r="G329" t="n">
-        <v>-269155.7484064402</v>
+        <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>41.41</v>
+      </c>
+      <c r="I329" t="n">
+        <v>41.41</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10303,21 @@
         <v>4631.802</v>
       </c>
       <c r="G330" t="n">
-        <v>-269155.7484064402</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10339,21 @@
         <v>17797.1085</v>
       </c>
       <c r="G331" t="n">
-        <v>-286952.8569064402</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10375,23 @@
         <v>760.072</v>
       </c>
       <c r="G332" t="n">
-        <v>-286192.7849064402</v>
+        <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+        <v>41.3</v>
+      </c>
+      <c r="I332" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,22 +10413,23 @@
         <v>3959.2145</v>
       </c>
       <c r="G333" t="n">
-        <v>-286192.7849064402</v>
+        <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>41.34</v>
       </c>
       <c r="I333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J333" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+        <v>41.41</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11408,24 +10451,23 @@
         <v>760.072</v>
       </c>
       <c r="G334" t="n">
-        <v>-285432.7129064402</v>
+        <v>1</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
         <v>41.34</v>
       </c>
-      <c r="K334" t="inlineStr">
+      <c r="I334" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J334" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11447,24 +10489,23 @@
         <v>7277.252</v>
       </c>
       <c r="G335" t="n">
-        <v>-292709.9649064402</v>
+        <v>1</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K335" t="inlineStr">
+        <v>41.36</v>
+      </c>
+      <c r="I335" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J335" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11486,26 +10527,23 @@
         <v>2886.8436</v>
       </c>
       <c r="G336" t="n">
-        <v>-292709.9649064402</v>
+        <v>1</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>41.34</v>
       </c>
       <c r="I336" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J336" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K336" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11527,26 +10565,23 @@
         <v>10625.1718</v>
       </c>
       <c r="G337" t="n">
-        <v>-292709.9649064402</v>
+        <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>41.34</v>
       </c>
       <c r="I337" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J337" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K337" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11568,26 +10603,23 @@
         <v>2200.22</v>
       </c>
       <c r="G338" t="n">
-        <v>-294910.1849064401</v>
+        <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>41.34</v>
       </c>
       <c r="I338" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J338" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K338" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11609,26 +10641,23 @@
         <v>3373.7076</v>
       </c>
       <c r="G339" t="n">
-        <v>-294910.1849064401</v>
+        <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>41.27</v>
       </c>
       <c r="I339" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="J339" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K339" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11650,26 +10679,23 @@
         <v>3268.6554</v>
       </c>
       <c r="G340" t="n">
-        <v>-291641.5295064402</v>
+        <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>41.27</v>
       </c>
       <c r="I340" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="J340" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K340" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11691,26 +10717,23 @@
         <v>108094.1785</v>
       </c>
       <c r="G341" t="n">
-        <v>-291641.5295064402</v>
+        <v>1</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>41.36</v>
       </c>
       <c r="I341" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="J341" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K341" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11732,26 +10755,23 @@
         <v>1671.633</v>
       </c>
       <c r="G342" t="n">
-        <v>-289969.8965064402</v>
+        <v>1</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>41.36</v>
       </c>
       <c r="I342" t="n">
-        <v>41.36</v>
-      </c>
-      <c r="J342" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K342" t="inlineStr">
+        <v>41.41</v>
+      </c>
+      <c r="J342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11773,24 +10793,21 @@
         <v>96029.481</v>
       </c>
       <c r="G343" t="n">
-        <v>-193940.4155064402</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K343" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11812,24 +10829,21 @@
         <v>3500</v>
       </c>
       <c r="G344" t="n">
-        <v>-197440.4155064402</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="K344" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="J344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
